--- a/Список пленок и толщин.xlsx
+++ b/Список пленок и толщин.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ОТДЕЛ КАЧЕСТВА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamynin\Documents\Программа по созданию протокола нагрева\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B9CC2C-6761-4997-B377-BE73F2AF730F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161569FB-9486-4DAF-8A84-D5CB1B27EDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="898">
   <si>
     <t>№ пленки</t>
   </si>
@@ -2827,6 +2827,9 @@
   </si>
   <si>
     <t>Браун Грей</t>
+  </si>
+  <si>
+    <t>0,31-0,47</t>
   </si>
 </sst>
 </file>
@@ -3302,6 +3305,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3317,13 +3327,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Нейтральный" xfId="1" builtinId="28"/>
@@ -3911,13 +3914,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:X198" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:X198" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="15">
-      <filters>
-        <filter val="ДА"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X198" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:X198">
     <sortCondition ref="A1:A198"/>
   </sortState>
@@ -4282,7 +4279,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4383,7 +4380,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>480</v>
       </c>
@@ -4448,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>481</v>
       </c>
@@ -4513,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>491</v>
       </c>
@@ -4534,7 +4531,9 @@
       <c r="J4" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -4566,7 +4565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>490</v>
       </c>
@@ -4587,7 +4586,9 @@
       <c r="J5" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="41"/>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -4619,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>497</v>
       </c>
@@ -4638,7 +4639,9 @@
         <v>417</v>
       </c>
       <c r="J6" s="38"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38">
         <v>5</v>
@@ -5022,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>410</v>
       </c>
@@ -5045,7 +5048,10 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="26"/>
+      <c r="K12" s="26">
+        <f>Таблица1[[#This Row],[Толщина пленки, мм]]</f>
+        <v>0.3</v>
+      </c>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -5056,7 +5062,7 @@
       <c r="Q12" s="19"/>
       <c r="R12" s="19">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S12" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5077,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>411</v>
       </c>
@@ -5098,7 +5104,9 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="26"/>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -5130,7 +5138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>419</v>
       </c>
@@ -5187,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>421</v>
       </c>
@@ -5244,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>412</v>
       </c>
@@ -5307,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>413</v>
       </c>
@@ -5330,7 +5338,9 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="26"/>
+      <c r="K17" s="19">
+        <v>0.32</v>
+      </c>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -5341,7 +5351,7 @@
       <c r="Q17" s="19"/>
       <c r="R17" s="19">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5362,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>485</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>493</v>
       </c>
@@ -5484,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>494</v>
       </c>
@@ -5545,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>495</v>
       </c>
@@ -5564,7 +5574,9 @@
         <v>417</v>
       </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="41">
+        <v>0</v>
+      </c>
       <c r="L21" s="38"/>
       <c r="M21" s="38">
         <v>3</v>
@@ -5602,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>431</v>
       </c>
@@ -5671,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>431</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>488</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>489</v>
       </c>
@@ -5856,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>487</v>
       </c>
@@ -5917,7 +5929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>472</v>
       </c>
@@ -5986,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>486</v>
       </c>
@@ -6047,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>475</v>
       </c>
@@ -6116,7 +6128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>477</v>
       </c>
@@ -6185,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>793</v>
       </c>
@@ -6254,7 +6266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>794</v>
       </c>
@@ -6323,7 +6335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>795</v>
       </c>
@@ -6394,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>796</v>
       </c>
@@ -6465,7 +6477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>432</v>
       </c>
@@ -6534,7 +6546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>797</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>798</v>
       </c>
@@ -6672,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>799</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>800</v>
       </c>
@@ -6812,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>801</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="50" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="50" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>728</v>
       </c>
@@ -6906,7 +6918,9 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="26"/>
+      <c r="K41" s="19">
+        <v>0.3</v>
+      </c>
       <c r="L41" s="51"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
@@ -6917,7 +6931,7 @@
       <c r="Q41" s="19"/>
       <c r="R41" s="19">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S41" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6938,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>802</v>
       </c>
@@ -7009,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>803</v>
       </c>
@@ -7080,7 +7094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="50" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="50" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>813</v>
       </c>
@@ -7147,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>804</v>
       </c>
@@ -7218,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="50" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" s="50" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>732</v>
       </c>
@@ -7275,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>805</v>
       </c>
@@ -7346,7 +7360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>806</v>
       </c>
@@ -7417,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>807</v>
       </c>
@@ -7488,7 +7502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="50" customFormat="1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="50" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>787</v>
       </c>
@@ -7559,7 +7573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="50" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="50" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>827</v>
       </c>
@@ -7630,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="50" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" s="50" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>737</v>
       </c>
@@ -7691,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>808</v>
       </c>
@@ -7756,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>809</v>
       </c>
@@ -7821,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>812</v>
       </c>
@@ -7886,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>651</v>
       </c>
@@ -7955,7 +7969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>652</v>
       </c>
@@ -8024,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>305</v>
       </c>
@@ -8047,7 +8061,9 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="26"/>
+      <c r="K58" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
@@ -8059,7 +8075,7 @@
       <c r="Q58" s="20"/>
       <c r="R58" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S58" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8081,67 +8097,67 @@
       </c>
     </row>
     <row r="59" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="64" t="s">
         <v>607</v>
       </c>
-      <c r="B59" s="69" t="s">
+      <c r="B59" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69" t="s">
+      <c r="C59" s="64"/>
+      <c r="D59" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69">
+      <c r="E59" s="64"/>
+      <c r="F59" s="64">
         <v>0.35</v>
       </c>
-      <c r="G59" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H59" s="69" t="s">
+      <c r="G59" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H59" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="I59" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J59" s="69" t="s">
+      <c r="I59" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J59" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="K59" s="70">
+      <c r="K59" s="65">
         <v>0.33</v>
       </c>
-      <c r="L59" s="69">
+      <c r="L59" s="64">
         <v>4</v>
       </c>
-      <c r="M59" s="69">
-        <v>5</v>
-      </c>
-      <c r="N59" s="69">
-        <v>5</v>
-      </c>
-      <c r="O59" s="69" t="s">
+      <c r="M59" s="64">
+        <v>5</v>
+      </c>
+      <c r="N59" s="64">
+        <v>5</v>
+      </c>
+      <c r="O59" s="64" t="s">
         <v>792</v>
       </c>
-      <c r="P59" s="69" t="str">
+      <c r="P59" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q59" s="69">
-        <v>5</v>
-      </c>
-      <c r="R59" s="69">
+      <c r="Q59" s="64">
+        <v>5</v>
+      </c>
+      <c r="R59" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>4</v>
       </c>
-      <c r="S59" s="69">
+      <c r="S59" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T59" s="69">
+      <c r="T59" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U59" s="69">
+      <c r="U59" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -8230,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>307</v>
       </c>
@@ -8253,7 +8269,9 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
-      <c r="K61" s="26"/>
+      <c r="K61" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
@@ -8265,7 +8283,7 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S61" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8309,7 +8327,9 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
-      <c r="K62" s="26"/>
+      <c r="K62" s="19">
+        <v>0.5</v>
+      </c>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
@@ -8321,7 +8341,7 @@
       <c r="Q62" s="20"/>
       <c r="R62" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S62" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8486,7 +8506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>311</v>
       </c>
@@ -8509,7 +8529,9 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
-      <c r="K65" s="26"/>
+      <c r="K65" s="19">
+        <v>0.4</v>
+      </c>
       <c r="L65" s="19"/>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
@@ -8521,7 +8543,7 @@
       <c r="Q65" s="20"/>
       <c r="R65" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S65" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9258,7 +9280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>320</v>
       </c>
@@ -9281,7 +9303,9 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
-      <c r="K76" s="26"/>
+      <c r="K76" s="19">
+        <v>0.4</v>
+      </c>
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
@@ -9293,7 +9317,7 @@
       <c r="Q76" s="20"/>
       <c r="R76" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S76" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9386,7 +9410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>322</v>
       </c>
@@ -9409,7 +9433,9 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="26"/>
+      <c r="K78" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
@@ -9421,7 +9447,7 @@
       <c r="Q78" s="20"/>
       <c r="R78" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S78" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9818,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>327</v>
       </c>
@@ -9841,7 +9867,9 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
-      <c r="K84" s="26"/>
+      <c r="K84" s="19">
+        <v>0.18</v>
+      </c>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="19"/>
@@ -9874,7 +9902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>328</v>
       </c>
@@ -9897,7 +9925,9 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
-      <c r="K85" s="26"/>
+      <c r="K85" s="19">
+        <v>0.18</v>
+      </c>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
@@ -9930,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>329</v>
       </c>
@@ -9953,7 +9983,9 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
-      <c r="K86" s="26"/>
+      <c r="K86" s="19">
+        <v>0.12</v>
+      </c>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="19"/>
@@ -9986,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>330</v>
       </c>
@@ -10009,7 +10041,9 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
-      <c r="K87" s="26"/>
+      <c r="K87" s="19">
+        <v>0.14499999999999999</v>
+      </c>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="19"/>
@@ -10042,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>331</v>
       </c>
@@ -10065,7 +10099,9 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
-      <c r="K88" s="26"/>
+      <c r="K88" s="19">
+        <v>0.18</v>
+      </c>
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
@@ -10098,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>332</v>
       </c>
@@ -10121,7 +10157,9 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
-      <c r="K89" s="26"/>
+      <c r="K89" s="19">
+        <v>0.18</v>
+      </c>
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
@@ -10154,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>333</v>
       </c>
@@ -10179,7 +10217,9 @@
       <c r="J90" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="K90" s="26"/>
+      <c r="K90" s="19">
+        <v>0.15</v>
+      </c>
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="19"/>
@@ -10212,7 +10252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>334</v>
       </c>
@@ -10235,7 +10275,9 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
-      <c r="K91" s="26"/>
+      <c r="K91" s="19">
+        <v>0.15</v>
+      </c>
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="19"/>
@@ -10268,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>335</v>
       </c>
@@ -10291,7 +10333,9 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="19"/>
-      <c r="K92" s="26"/>
+      <c r="K92" s="19">
+        <v>0.16</v>
+      </c>
       <c r="L92" s="19"/>
       <c r="M92" s="19"/>
       <c r="N92" s="19"/>
@@ -10324,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>336</v>
       </c>
@@ -10347,7 +10391,9 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="19"/>
-      <c r="K93" s="26"/>
+      <c r="K93" s="19">
+        <v>0.12</v>
+      </c>
       <c r="L93" s="19"/>
       <c r="M93" s="19"/>
       <c r="N93" s="19"/>
@@ -10380,7 +10426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>337</v>
       </c>
@@ -10403,7 +10449,9 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
-      <c r="K94" s="26"/>
+      <c r="K94" s="19">
+        <v>0.12</v>
+      </c>
       <c r="L94" s="19"/>
       <c r="M94" s="19"/>
       <c r="N94" s="19"/>
@@ -10436,7 +10484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>338</v>
       </c>
@@ -10459,7 +10507,9 @@
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="19"/>
-      <c r="K95" s="26"/>
+      <c r="K95" s="19">
+        <v>0.12</v>
+      </c>
       <c r="L95" s="19"/>
       <c r="M95" s="19"/>
       <c r="N95" s="19"/>
@@ -10492,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>339</v>
       </c>
@@ -10515,7 +10565,9 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>
-      <c r="K96" s="26"/>
+      <c r="K96" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
       <c r="N96" s="19"/>
@@ -10548,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>340</v>
       </c>
@@ -10571,7 +10623,9 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
-      <c r="K97" s="26"/>
+      <c r="K97" s="19">
+        <v>0.12</v>
+      </c>
       <c r="L97" s="19"/>
       <c r="M97" s="19"/>
       <c r="N97" s="19"/>
@@ -10604,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>341</v>
       </c>
@@ -10627,7 +10681,9 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="19"/>
-      <c r="K98" s="26"/>
+      <c r="K98" s="19">
+        <v>0.12</v>
+      </c>
       <c r="L98" s="19"/>
       <c r="M98" s="19"/>
       <c r="N98" s="19"/>
@@ -10660,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>342</v>
       </c>
@@ -10683,7 +10739,9 @@
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="19"/>
-      <c r="K99" s="26"/>
+      <c r="K99" s="19">
+        <v>0.09</v>
+      </c>
       <c r="L99" s="19"/>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
@@ -10716,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>343</v>
       </c>
@@ -10739,7 +10797,9 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
-      <c r="K100" s="26"/>
+      <c r="K100" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L100" s="19"/>
       <c r="M100" s="19"/>
       <c r="N100" s="19"/>
@@ -10751,7 +10811,7 @@
       <c r="Q100" s="20"/>
       <c r="R100" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S100" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10917,71 +10977,71 @@
       </c>
     </row>
     <row r="103" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="64" t="s">
         <v>346</v>
       </c>
-      <c r="B103" s="69" t="s">
+      <c r="B103" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="C103" s="69" t="s">
+      <c r="C103" s="64" t="s">
         <v>141</v>
       </c>
-      <c r="D103" s="69" t="s">
+      <c r="D103" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E103" s="69" t="s">
+      <c r="E103" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="69">
+      <c r="F103" s="64">
         <v>0.42</v>
       </c>
-      <c r="G103" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H103" s="69" t="s">
+      <c r="G103" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H103" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="I103" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J103" s="69" t="s">
+      <c r="I103" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J103" s="64" t="s">
         <v>492</v>
       </c>
-      <c r="K103" s="70">
+      <c r="K103" s="65">
         <v>0.39</v>
       </c>
-      <c r="L103" s="69">
+      <c r="L103" s="64">
         <v>4</v>
       </c>
-      <c r="M103" s="69">
-        <v>5</v>
-      </c>
-      <c r="N103" s="69">
-        <v>5</v>
-      </c>
-      <c r="O103" s="69" t="s">
+      <c r="M103" s="64">
+        <v>5</v>
+      </c>
+      <c r="N103" s="64">
+        <v>5</v>
+      </c>
+      <c r="O103" s="64" t="s">
         <v>792</v>
       </c>
-      <c r="P103" s="69" t="str">
+      <c r="P103" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q103" s="69">
-        <v>5</v>
-      </c>
-      <c r="R103" s="69">
+      <c r="Q103" s="64">
+        <v>5</v>
+      </c>
+      <c r="R103" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S103" s="69">
+      <c r="S103" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T103" s="69">
+      <c r="T103" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U103" s="69">
+      <c r="U103" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -10998,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>347</v>
       </c>
@@ -11021,7 +11081,9 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="19"/>
-      <c r="K104" s="26"/>
+      <c r="K104" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L104" s="19"/>
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
@@ -11033,7 +11095,7 @@
       <c r="Q104" s="20"/>
       <c r="R104" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S104" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11054,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>348</v>
       </c>
@@ -11077,7 +11139,9 @@
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
-      <c r="K105" s="26"/>
+      <c r="K105" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L105" s="19"/>
       <c r="M105" s="19"/>
       <c r="N105" s="19"/>
@@ -11089,7 +11153,7 @@
       <c r="Q105" s="20"/>
       <c r="R105" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S105" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11110,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>349</v>
       </c>
@@ -11133,7 +11197,9 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="19"/>
-      <c r="K106" s="26"/>
+      <c r="K106" s="19">
+        <v>0.48</v>
+      </c>
       <c r="L106" s="19"/>
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
@@ -11145,7 +11211,7 @@
       <c r="Q106" s="20"/>
       <c r="R106" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S106" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11238,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>351</v>
       </c>
@@ -11261,7 +11327,9 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
-      <c r="K108" s="26"/>
+      <c r="K108" s="19">
+        <v>0.48</v>
+      </c>
       <c r="L108" s="19"/>
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
@@ -11273,7 +11341,7 @@
       <c r="Q108" s="20"/>
       <c r="R108" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S108" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11294,7 +11362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>352</v>
       </c>
@@ -11317,7 +11385,9 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="19"/>
-      <c r="K109" s="26"/>
+      <c r="K109" s="19">
+        <v>0.4</v>
+      </c>
       <c r="L109" s="19"/>
       <c r="M109" s="19"/>
       <c r="N109" s="19"/>
@@ -11329,7 +11399,7 @@
       <c r="Q109" s="20"/>
       <c r="R109" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S109" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11350,7 +11420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>353</v>
       </c>
@@ -11373,7 +11443,9 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
-      <c r="K110" s="26"/>
+      <c r="K110" s="19">
+        <v>0.09</v>
+      </c>
       <c r="L110" s="19"/>
       <c r="M110" s="19"/>
       <c r="N110" s="19"/>
@@ -11488,7 +11560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>355</v>
       </c>
@@ -11770,7 +11842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>295</v>
       </c>
@@ -11793,7 +11865,9 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
-      <c r="K116" s="26"/>
+      <c r="K116" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L116" s="19"/>
       <c r="M116" s="19"/>
       <c r="N116" s="19"/>
@@ -11805,7 +11879,7 @@
       <c r="Q116" s="20"/>
       <c r="R116" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S116" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11899,71 +11973,71 @@
       </c>
     </row>
     <row r="118" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="69" t="s">
+      <c r="A118" s="64" t="s">
         <v>296</v>
       </c>
-      <c r="B118" s="69" t="s">
+      <c r="B118" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C118" s="69" t="s">
+      <c r="C118" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="69" t="s">
+      <c r="D118" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="69" t="s">
+      <c r="E118" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F118" s="69">
+      <c r="F118" s="64">
         <v>0.4</v>
       </c>
-      <c r="G118" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H118" s="69" t="s">
+      <c r="G118" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H118" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="I118" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J118" s="69" t="s">
+      <c r="I118" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J118" s="64" t="s">
         <v>501</v>
       </c>
-      <c r="K118" s="70">
+      <c r="K118" s="65">
         <v>0.4</v>
       </c>
-      <c r="L118" s="69">
+      <c r="L118" s="64">
         <v>3</v>
       </c>
-      <c r="M118" s="69">
-        <v>5</v>
-      </c>
-      <c r="N118" s="69">
-        <v>5</v>
-      </c>
-      <c r="O118" s="69">
-        <v>1</v>
-      </c>
-      <c r="P118" s="69" t="str">
+      <c r="M118" s="64">
+        <v>5</v>
+      </c>
+      <c r="N118" s="64">
+        <v>5</v>
+      </c>
+      <c r="O118" s="64">
+        <v>1</v>
+      </c>
+      <c r="P118" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q118" s="69">
-        <v>5</v>
-      </c>
-      <c r="R118" s="69">
+      <c r="Q118" s="64">
+        <v>5</v>
+      </c>
+      <c r="R118" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S118" s="69">
+      <c r="S118" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>3</v>
       </c>
-      <c r="T118" s="69">
+      <c r="T118" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U118" s="69">
+      <c r="U118" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -12374,7 +12448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>365</v>
       </c>
@@ -12516,7 +12590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>367</v>
       </c>
@@ -13202,7 +13276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>376</v>
       </c>
@@ -13340,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>378</v>
       </c>
@@ -13503,7 +13577,9 @@
       <c r="J139" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="K139" s="26"/>
+      <c r="K139" s="19">
+        <v>0.25</v>
+      </c>
       <c r="L139" s="19"/>
       <c r="M139" s="19">
         <v>2</v>
@@ -13521,7 +13597,7 @@
       <c r="Q139" s="20"/>
       <c r="R139" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S139" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13778,7 +13854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>384</v>
       </c>
@@ -13840,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>385</v>
       </c>
@@ -13904,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>386</v>
       </c>
@@ -13968,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>387</v>
       </c>
@@ -14032,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>388</v>
       </c>
@@ -14096,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>389</v>
       </c>
@@ -14160,7 +14236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>390</v>
       </c>
@@ -14752,7 +14828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>398</v>
       </c>
@@ -14825,71 +14901,71 @@
       </c>
     </row>
     <row r="158" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="69" t="s">
+      <c r="A158" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="B158" s="69" t="s">
+      <c r="B158" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="C158" s="69" t="s">
+      <c r="C158" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="D158" s="69" t="s">
+      <c r="D158" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="E158" s="69">
+      <c r="E158" s="64">
         <v>100</v>
       </c>
-      <c r="F158" s="69">
+      <c r="F158" s="64">
         <v>0.3</v>
       </c>
-      <c r="G158" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H158" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="I158" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J158" s="69" t="s">
+      <c r="G158" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H158" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="I158" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J158" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="K158" s="70">
+      <c r="K158" s="65">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L158" s="69">
+      <c r="L158" s="64">
         <v>4</v>
       </c>
-      <c r="M158" s="69">
+      <c r="M158" s="64">
         <v>2</v>
       </c>
-      <c r="N158" s="69">
-        <v>5</v>
-      </c>
-      <c r="O158" s="69">
-        <v>1</v>
-      </c>
-      <c r="P158" s="69" t="str">
+      <c r="N158" s="64">
+        <v>5</v>
+      </c>
+      <c r="O158" s="64">
+        <v>1</v>
+      </c>
+      <c r="P158" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q158" s="69">
-        <v>5</v>
-      </c>
-      <c r="R158" s="69">
+      <c r="Q158" s="64">
+        <v>5</v>
+      </c>
+      <c r="R158" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>3</v>
       </c>
-      <c r="S158" s="69">
+      <c r="S158" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T158" s="69">
+      <c r="T158" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U158" s="69">
+      <c r="U158" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -14978,7 +15054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>401</v>
       </c>
@@ -15461,71 +15537,71 @@
       </c>
     </row>
     <row r="166" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="69" t="s">
+      <c r="A166" s="64" t="s">
         <v>407</v>
       </c>
-      <c r="B166" s="69" t="s">
+      <c r="B166" s="64" t="s">
         <v>896</v>
       </c>
-      <c r="C166" s="69" t="s">
+      <c r="C166" s="64" t="s">
         <v>276</v>
       </c>
-      <c r="D166" s="69" t="s">
+      <c r="D166" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="E166" s="69" t="s">
+      <c r="E166" s="64" t="s">
         <v>268</v>
       </c>
-      <c r="F166" s="69">
+      <c r="F166" s="64">
         <v>0.35</v>
       </c>
-      <c r="G166" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H166" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="I166" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J166" s="69" t="s">
+      <c r="G166" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H166" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="I166" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J166" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="K166" s="70">
+      <c r="K166" s="65">
         <v>0.35</v>
       </c>
-      <c r="L166" s="69">
+      <c r="L166" s="64">
         <v>4</v>
       </c>
-      <c r="M166" s="69">
-        <v>5</v>
-      </c>
-      <c r="N166" s="69">
-        <v>5</v>
-      </c>
-      <c r="O166" s="69">
+      <c r="M166" s="64">
+        <v>5</v>
+      </c>
+      <c r="N166" s="64">
+        <v>5</v>
+      </c>
+      <c r="O166" s="64">
         <v>3</v>
       </c>
-      <c r="P166" s="69" t="str">
+      <c r="P166" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q166" s="69">
+      <c r="Q166" s="64">
         <v>4</v>
       </c>
-      <c r="R166" s="69">
+      <c r="R166" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S166" s="69">
+      <c r="S166" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T166" s="69">
+      <c r="T166" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U166" s="69">
+      <c r="U166" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -15543,66 +15619,66 @@
       </c>
     </row>
     <row r="167" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="69" t="s">
+      <c r="A167" s="64" t="s">
         <v>408</v>
       </c>
-      <c r="B167" s="69" t="s">
+      <c r="B167" s="64" t="s">
         <v>711</v>
       </c>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="69"/>
-      <c r="F167" s="69">
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="64"/>
+      <c r="F167" s="64">
         <v>0.27</v>
       </c>
-      <c r="G167" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H167" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="I167" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J167" s="69" t="s">
+      <c r="G167" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H167" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="I167" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J167" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="K167" s="70">
+      <c r="K167" s="65">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Входной_контроль[],4,0),"")</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="L167" s="69">
+      <c r="L167" s="64">
         <v>2</v>
       </c>
-      <c r="M167" s="69">
+      <c r="M167" s="64">
         <v>2</v>
       </c>
-      <c r="N167" s="69">
-        <v>5</v>
-      </c>
-      <c r="O167" s="69">
-        <v>1</v>
-      </c>
-      <c r="P167" s="69" t="str">
+      <c r="N167" s="64">
+        <v>5</v>
+      </c>
+      <c r="O167" s="64">
+        <v>1</v>
+      </c>
+      <c r="P167" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q167" s="69">
-        <v>5</v>
-      </c>
-      <c r="R167" s="69">
+      <c r="Q167" s="64">
+        <v>5</v>
+      </c>
+      <c r="R167" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>3</v>
       </c>
-      <c r="S167" s="69">
+      <c r="S167" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>2</v>
       </c>
-      <c r="T167" s="69">
+      <c r="T167" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U167" s="69">
+      <c r="U167" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -16481,7 +16557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>293</v>
       </c>
@@ -16504,7 +16580,9 @@
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
-      <c r="K179" s="26"/>
+      <c r="K179" s="19">
+        <v>0.4</v>
+      </c>
       <c r="L179" s="19"/>
       <c r="M179" s="19"/>
       <c r="N179" s="19"/>
@@ -16516,7 +16594,7 @@
       <c r="Q179" s="20"/>
       <c r="R179" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S179" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16762,71 +16840,71 @@
       </c>
     </row>
     <row r="183" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="69" t="s">
+      <c r="A183" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="B183" s="69" t="s">
+      <c r="B183" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C183" s="69" t="s">
+      <c r="C183" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="D183" s="69" t="s">
+      <c r="D183" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E183" s="69" t="s">
+      <c r="E183" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="F183" s="69">
+      <c r="F183" s="64">
         <v>0.4</v>
       </c>
-      <c r="G183" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H183" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="I183" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J183" s="69" t="s">
+      <c r="G183" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H183" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="I183" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J183" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="K183" s="70">
+      <c r="K183" s="65">
         <v>0.38</v>
       </c>
-      <c r="L183" s="69">
+      <c r="L183" s="64">
         <v>3</v>
       </c>
-      <c r="M183" s="69">
+      <c r="M183" s="64">
         <v>2</v>
       </c>
-      <c r="N183" s="69">
-        <v>5</v>
-      </c>
-      <c r="O183" s="69" t="s">
+      <c r="N183" s="64">
+        <v>5</v>
+      </c>
+      <c r="O183" s="64" t="s">
         <v>792</v>
       </c>
-      <c r="P183" s="69" t="str">
+      <c r="P183" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q183" s="69">
+      <c r="Q183" s="64">
         <v>3</v>
       </c>
-      <c r="R183" s="69">
+      <c r="R183" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S183" s="69">
+      <c r="S183" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>3</v>
       </c>
-      <c r="T183" s="69">
+      <c r="T183" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U183" s="69">
+      <c r="U183" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -16907,7 +16985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>299</v>
       </c>
@@ -16926,7 +17004,9 @@
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
-      <c r="K185" s="26"/>
+      <c r="K185" s="19">
+        <v>0.35</v>
+      </c>
       <c r="L185" s="19"/>
       <c r="M185" s="19"/>
       <c r="N185" s="19"/>
@@ -16938,7 +17018,7 @@
       <c r="Q185" s="20"/>
       <c r="R185" s="20">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S185" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17031,7 +17111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>644</v>
       </c>
@@ -17103,7 +17183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>496</v>
       </c>
@@ -17122,7 +17202,9 @@
         <v>417</v>
       </c>
       <c r="J188" s="38"/>
-      <c r="K188" s="41"/>
+      <c r="K188" s="41">
+        <v>0</v>
+      </c>
       <c r="L188" s="38"/>
       <c r="M188" s="38">
         <v>5</v>
@@ -17161,7 +17243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>483</v>
       </c>
@@ -17224,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>756</v>
       </c>
@@ -17294,7 +17376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>759</v>
       </c>
@@ -17364,7 +17446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>762</v>
       </c>
@@ -17434,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
         <v>765</v>
       </c>
@@ -17504,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>644</v>
       </c>
@@ -17574,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
         <v>770</v>
       </c>
@@ -17644,7 +17726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>773</v>
       </c>
@@ -17714,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>749</v>
       </c>
@@ -17778,72 +17860,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" s="71" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="69" t="s">
+    <row r="198" spans="1:24" s="66" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="B198" s="69" t="s">
+      <c r="B198" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="C198" s="69" t="s">
+      <c r="C198" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D198" s="69" t="s">
+      <c r="D198" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="E198" s="69" t="s">
+      <c r="E198" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F198" s="69">
+      <c r="F198" s="64">
         <v>0.35</v>
       </c>
-      <c r="G198" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="H198" s="69" t="s">
+      <c r="G198" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="H198" s="64" t="s">
         <v>420</v>
       </c>
-      <c r="I198" s="69" t="s">
-        <v>417</v>
-      </c>
-      <c r="J198" s="69" t="s">
+      <c r="I198" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J198" s="64" t="s">
         <v>464</v>
       </c>
-      <c r="K198" s="70">
+      <c r="K198" s="65">
         <v>0.36</v>
       </c>
-      <c r="L198" s="69">
+      <c r="L198" s="64">
         <v>4</v>
       </c>
-      <c r="M198" s="69">
-        <v>5</v>
-      </c>
-      <c r="N198" s="69">
-        <v>5</v>
-      </c>
-      <c r="O198" s="69" t="s">
+      <c r="M198" s="64">
+        <v>5</v>
+      </c>
+      <c r="N198" s="64">
+        <v>5</v>
+      </c>
+      <c r="O198" s="64" t="s">
         <v>792</v>
       </c>
-      <c r="P198" s="69" t="str">
+      <c r="P198" s="64" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q198" s="69">
+      <c r="Q198" s="64">
         <v>4</v>
       </c>
-      <c r="R198" s="69">
+      <c r="R198" s="64">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S198" s="69">
+      <c r="S198" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T198" s="69">
+      <c r="T198" s="64">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U198" s="69">
+      <c r="U198" s="64">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
@@ -18060,10 +18142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>883</v>
       </c>
-      <c r="B1" s="64"/>
+      <c r="B1" s="67"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
@@ -19209,14 +19291,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="D1" s="66" t="s">
+      <c r="B1" s="68"/>
+      <c r="D1" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -19315,7 +19397,7 @@
   <dimension ref="A1:E413"/>
   <sheetViews>
     <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="E287" sqref="E287"/>
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24129,11 +24211,21 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-      <c r="B284" s="3"/>
-      <c r="C284" s="3"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="3"/>
+      <c r="A284" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B284" s="3">
+        <v>242</v>
+      </c>
+      <c r="C284" s="4">
+        <v>45923</v>
+      </c>
+      <c r="D284" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1"/>
@@ -25064,19 +25156,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="70" t="s">
         <v>708</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="68" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="71" t="s">
         <v>709</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">

--- a/Список пленок и толщин.xlsx
+++ b/Список пленок и толщин.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamynin\Documents\Программа по созданию протокола нагрева\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ОТДЕЛ КАЧЕСТВА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161569FB-9486-4DAF-8A84-D5CB1B27EDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A895C680-CAD5-4C03-8E4E-2FCD66EEF576}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Перечень пленок" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Входной контроль" sheetId="2" r:id="rId5"/>
     <sheet name="Таблица для ламинирования" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="906">
   <si>
     <t>№ пленки</t>
   </si>
@@ -2830,6 +2830,30 @@
   </si>
   <si>
     <t>0,31-0,47</t>
+  </si>
+  <si>
+    <t>0,71-0,85</t>
+  </si>
+  <si>
+    <t>0,63-0,70</t>
+  </si>
+  <si>
+    <t>0,54-0,56</t>
+  </si>
+  <si>
+    <t>0,51-0,64</t>
+  </si>
+  <si>
+    <t>0,37-0,40</t>
+  </si>
+  <si>
+    <t>0,37-0,44</t>
+  </si>
+  <si>
+    <t>№1542</t>
+  </si>
+  <si>
+    <t>№1541</t>
   </si>
 </sst>
 </file>
@@ -3914,7 +3938,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица1" displayName="Таблица1" ref="A1:X198" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
-  <autoFilter ref="A1:X198" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:X198" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="ДА"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:X198">
     <sortCondition ref="A1:A198"/>
   </sortState>
@@ -4277,9 +4307,9 @@
   </sheetPr>
   <dimension ref="A1:X205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -4380,7 +4410,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>480</v>
       </c>
@@ -4422,9 +4452,9 @@
         <v>884</v>
       </c>
       <c r="Q2" s="19"/>
-      <c r="R2" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R2" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S2" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4445,7 +4475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>481</v>
       </c>
@@ -4487,9 +4517,9 @@
         <v>884</v>
       </c>
       <c r="Q3" s="19"/>
-      <c r="R3" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R3" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S3" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4510,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>491</v>
       </c>
@@ -4531,9 +4561,7 @@
       <c r="J4" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
+      <c r="K4" s="41"/>
       <c r="L4" s="38"/>
       <c r="M4" s="38"/>
       <c r="N4" s="38"/>
@@ -4542,9 +4570,9 @@
         <v>884</v>
       </c>
       <c r="Q4" s="19"/>
-      <c r="R4" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R4" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S4" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4565,7 +4593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>490</v>
       </c>
@@ -4586,9 +4614,7 @@
       <c r="J5" s="38" t="s">
         <v>464</v>
       </c>
-      <c r="K5" s="41">
-        <v>0</v>
-      </c>
+      <c r="K5" s="41"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
@@ -4597,9 +4623,9 @@
         <v>884</v>
       </c>
       <c r="Q5" s="19"/>
-      <c r="R5" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R5" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S5" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4620,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>497</v>
       </c>
@@ -4639,9 +4665,7 @@
         <v>417</v>
       </c>
       <c r="J6" s="38"/>
-      <c r="K6" s="41">
-        <v>0</v>
-      </c>
+      <c r="K6" s="41"/>
       <c r="L6" s="38"/>
       <c r="M6" s="38">
         <v>5</v>
@@ -4656,9 +4680,9 @@
         <v>884</v>
       </c>
       <c r="Q6" s="19"/>
-      <c r="R6" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R6" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S6" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4724,9 +4748,9 @@
         <v>ДА</v>
       </c>
       <c r="Q7" s="19"/>
-      <c r="R7" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R7" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S7" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4794,9 +4818,9 @@
         <v>ДА</v>
       </c>
       <c r="Q8" s="19"/>
-      <c r="R8" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R8" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S8" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4862,9 +4886,9 @@
         <v>ДА</v>
       </c>
       <c r="Q9" s="19"/>
-      <c r="R9" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R9" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S9" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -4930,9 +4954,9 @@
         <v>ДА</v>
       </c>
       <c r="Q10" s="19"/>
-      <c r="R10" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R10" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S10" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5002,9 +5026,9 @@
         <v>ДА</v>
       </c>
       <c r="Q11" s="19"/>
-      <c r="R11" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R11" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S11" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5025,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>410</v>
       </c>
@@ -5048,10 +5072,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="26">
-        <f>Таблица1[[#This Row],[Толщина пленки, мм]]</f>
-        <v>0.3</v>
-      </c>
+      <c r="K12" s="26"/>
       <c r="L12" s="19"/>
       <c r="M12" s="19"/>
       <c r="N12" s="19"/>
@@ -5060,9 +5081,9 @@
         <v>884</v>
       </c>
       <c r="Q12" s="19"/>
-      <c r="R12" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R12" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S12" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5083,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>411</v>
       </c>
@@ -5104,9 +5125,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="26">
-        <v>0</v>
-      </c>
+      <c r="K13" s="26"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
@@ -5115,9 +5134,9 @@
         <v>884</v>
       </c>
       <c r="Q13" s="19"/>
-      <c r="R13" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R13" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S13" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5138,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>419</v>
       </c>
@@ -5172,9 +5191,9 @@
         <v>884</v>
       </c>
       <c r="Q14" s="19"/>
-      <c r="R14" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>2</v>
+      <c r="R14" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S14" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5195,7 +5214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>421</v>
       </c>
@@ -5229,9 +5248,9 @@
         <v>884</v>
       </c>
       <c r="Q15" s="19"/>
-      <c r="R15" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R15" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S15" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5252,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>412</v>
       </c>
@@ -5292,9 +5311,9 @@
         <v>884</v>
       </c>
       <c r="Q16" s="19"/>
-      <c r="R16" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R16" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S16" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5315,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>413</v>
       </c>
@@ -5338,9 +5357,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
-      <c r="K17" s="19">
-        <v>0.32</v>
-      </c>
+      <c r="K17" s="26"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
@@ -5349,9 +5366,9 @@
         <v>884</v>
       </c>
       <c r="Q17" s="19"/>
-      <c r="R17" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R17" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S17" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5372,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>485</v>
       </c>
@@ -5410,9 +5427,9 @@
         <v>884</v>
       </c>
       <c r="Q18" s="19"/>
-      <c r="R18" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R18" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S18" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5433,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>493</v>
       </c>
@@ -5471,9 +5488,9 @@
         <v>884</v>
       </c>
       <c r="Q19" s="19"/>
-      <c r="R19" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R19" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S19" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5494,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>494</v>
       </c>
@@ -5532,9 +5549,9 @@
         <v>884</v>
       </c>
       <c r="Q20" s="19"/>
-      <c r="R20" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>2</v>
+      <c r="R20" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S20" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5555,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>495</v>
       </c>
@@ -5574,9 +5591,7 @@
         <v>417</v>
       </c>
       <c r="J21" s="38"/>
-      <c r="K21" s="41">
-        <v>0</v>
-      </c>
+      <c r="K21" s="41"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38">
         <v>3</v>
@@ -5591,9 +5606,9 @@
         <v>884</v>
       </c>
       <c r="Q21" s="19"/>
-      <c r="R21" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R21" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S21" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5614,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>431</v>
       </c>
@@ -5660,9 +5675,9 @@
         <v>884</v>
       </c>
       <c r="Q22" s="19"/>
-      <c r="R22" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R22" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S22" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5683,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>431</v>
       </c>
@@ -5724,8 +5739,8 @@
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="19" t="e">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>#N/A</v>
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S23" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5746,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>488</v>
       </c>
@@ -5784,9 +5799,9 @@
         <v>884</v>
       </c>
       <c r="Q24" s="19"/>
-      <c r="R24" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R24" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S24" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5807,7 +5822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>489</v>
       </c>
@@ -5845,9 +5860,9 @@
         <v>884</v>
       </c>
       <c r="Q25" s="19"/>
-      <c r="R25" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R25" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S25" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5868,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>487</v>
       </c>
@@ -5906,9 +5921,9 @@
         <v>884</v>
       </c>
       <c r="Q26" s="19"/>
-      <c r="R26" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R26" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S26" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5929,7 +5944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
         <v>472</v>
       </c>
@@ -5975,9 +5990,9 @@
         <v>884</v>
       </c>
       <c r="Q27" s="19"/>
-      <c r="R27" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R27" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S27" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -5998,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>486</v>
       </c>
@@ -6036,9 +6051,9 @@
         <v>884</v>
       </c>
       <c r="Q28" s="19"/>
-      <c r="R28" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R28" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S28" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6059,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
         <v>475</v>
       </c>
@@ -6105,9 +6120,9 @@
         <v>884</v>
       </c>
       <c r="Q29" s="19"/>
-      <c r="R29" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R29" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S29" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6128,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
         <v>477</v>
       </c>
@@ -6174,9 +6189,9 @@
         <v>884</v>
       </c>
       <c r="Q30" s="19"/>
-      <c r="R30" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R30" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S30" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6197,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>793</v>
       </c>
@@ -6243,9 +6258,9 @@
         <v>884</v>
       </c>
       <c r="Q31" s="19"/>
-      <c r="R31" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R31" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S31" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6266,7 +6281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
         <v>794</v>
       </c>
@@ -6312,9 +6327,9 @@
         <v>884</v>
       </c>
       <c r="Q32" s="19"/>
-      <c r="R32" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>2</v>
+      <c r="R32" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S32" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6335,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
         <v>795</v>
       </c>
@@ -6383,9 +6398,9 @@
         <v>884</v>
       </c>
       <c r="Q33" s="19"/>
-      <c r="R33" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R33" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S33" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6406,7 +6421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>796</v>
       </c>
@@ -6454,9 +6469,9 @@
         <v>884</v>
       </c>
       <c r="Q34" s="19"/>
-      <c r="R34" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R34" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S34" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6477,7 +6492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
         <v>432</v>
       </c>
@@ -6523,9 +6538,9 @@
         <v>884</v>
       </c>
       <c r="Q35" s="19"/>
-      <c r="R35" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R35" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S35" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6546,7 +6561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
         <v>797</v>
       </c>
@@ -6592,9 +6607,9 @@
         <v>884</v>
       </c>
       <c r="Q36" s="19"/>
-      <c r="R36" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R36" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S36" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6615,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>798</v>
       </c>
@@ -6661,9 +6676,9 @@
         <v>884</v>
       </c>
       <c r="Q37" s="19"/>
-      <c r="R37" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>2</v>
+      <c r="R37" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S37" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6684,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
         <v>799</v>
       </c>
@@ -6732,9 +6747,9 @@
         <v>884</v>
       </c>
       <c r="Q38" s="19"/>
-      <c r="R38" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R38" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S38" s="19" t="str">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6755,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
         <v>800</v>
       </c>
@@ -6801,9 +6816,9 @@
         <v>884</v>
       </c>
       <c r="Q39" s="19"/>
-      <c r="R39" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R39" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S39" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6824,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>801</v>
       </c>
@@ -6872,9 +6887,9 @@
         <v>884</v>
       </c>
       <c r="Q40" s="19"/>
-      <c r="R40" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R40" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S40" s="19" t="str">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6895,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="50" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="50" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>728</v>
       </c>
@@ -6918,9 +6933,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="19">
-        <v>0.3</v>
-      </c>
+      <c r="K41" s="26"/>
       <c r="L41" s="51"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
@@ -6929,9 +6942,9 @@
         <v>884</v>
       </c>
       <c r="Q41" s="19"/>
-      <c r="R41" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R41" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S41" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6952,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>802</v>
       </c>
@@ -7000,9 +7013,9 @@
         <v>884</v>
       </c>
       <c r="Q42" s="19"/>
-      <c r="R42" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R42" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S42" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7023,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>803</v>
       </c>
@@ -7072,8 +7085,8 @@
       </c>
       <c r="Q43" s="19"/>
       <c r="R43" s="19" t="e">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>#N/A</v>
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S43" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7094,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="50" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" s="50" customFormat="1" ht="54.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>813</v>
       </c>
@@ -7138,9 +7151,9 @@
         <v>884</v>
       </c>
       <c r="Q44" s="19"/>
-      <c r="R44" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R44" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S44" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7161,7 +7174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
         <v>804</v>
       </c>
@@ -7210,8 +7223,8 @@
       </c>
       <c r="Q45" s="19"/>
       <c r="R45" s="19" t="e">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>#N/A</v>
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S45" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7232,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="50" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" s="50" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
         <v>732</v>
       </c>
@@ -7267,8 +7280,8 @@
       </c>
       <c r="Q46" s="19"/>
       <c r="R46" s="19" t="e">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>#N/A</v>
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S46" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7289,7 +7302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
         <v>805</v>
       </c>
@@ -7337,9 +7350,9 @@
         <v>884</v>
       </c>
       <c r="Q47" s="19"/>
-      <c r="R47" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R47" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S47" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7360,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>806</v>
       </c>
@@ -7408,9 +7421,9 @@
         <v>884</v>
       </c>
       <c r="Q48" s="19"/>
-      <c r="R48" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R48" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S48" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7431,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>807</v>
       </c>
@@ -7479,9 +7492,9 @@
         <v>884</v>
       </c>
       <c r="Q49" s="19"/>
-      <c r="R49" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R49" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S49" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7502,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="50" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" s="50" customFormat="1" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>787</v>
       </c>
@@ -7550,9 +7563,9 @@
         <v>884</v>
       </c>
       <c r="Q50" s="19"/>
-      <c r="R50" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R50" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S50" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7573,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="50" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" s="50" customFormat="1" ht="53.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>827</v>
       </c>
@@ -7621,9 +7634,9 @@
         <v>884</v>
       </c>
       <c r="Q51" s="19"/>
-      <c r="R51" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R51" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S51" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7644,7 +7657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="50" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" s="50" customFormat="1" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
         <v>737</v>
       </c>
@@ -7682,9 +7695,9 @@
         <v>884</v>
       </c>
       <c r="Q52" s="19"/>
-      <c r="R52" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R52" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S52" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7705,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>808</v>
       </c>
@@ -7747,9 +7760,9 @@
         <v>884</v>
       </c>
       <c r="Q53" s="19"/>
-      <c r="R53" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R53" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S53" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7770,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>809</v>
       </c>
@@ -7812,9 +7825,9 @@
         <v>884</v>
       </c>
       <c r="Q54" s="19"/>
-      <c r="R54" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R54" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S54" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7835,7 +7848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="50" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" s="50" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>812</v>
       </c>
@@ -7877,9 +7890,9 @@
         <v>884</v>
       </c>
       <c r="Q55" s="19"/>
-      <c r="R55" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R55" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S55" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7900,7 +7913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>651</v>
       </c>
@@ -7946,9 +7959,9 @@
         <v>884</v>
       </c>
       <c r="Q56" s="19"/>
-      <c r="R56" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R56" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S56" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -7969,7 +7982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="50" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" s="50" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>652</v>
       </c>
@@ -8015,9 +8028,9 @@
         <v>884</v>
       </c>
       <c r="Q57" s="19"/>
-      <c r="R57" s="19">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R57" s="19" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S57" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8038,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
         <v>305</v>
       </c>
@@ -8061,9 +8074,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
-      <c r="K58" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K58" s="26"/>
       <c r="L58" s="19"/>
       <c r="M58" s="19"/>
       <c r="N58" s="19"/>
@@ -8073,9 +8084,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q58" s="20"/>
-      <c r="R58" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R58" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S58" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8145,9 +8156,9 @@
       <c r="Q59" s="64">
         <v>5</v>
       </c>
-      <c r="R59" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R59" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S59" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8161,13 +8172,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V59" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W59" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V59" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W59" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X59" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -8223,9 +8234,9 @@
         <v>ДА</v>
       </c>
       <c r="Q60" s="20"/>
-      <c r="R60" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R60" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S60" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8246,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>307</v>
       </c>
@@ -8269,9 +8280,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="19"/>
-      <c r="K61" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K61" s="26"/>
       <c r="L61" s="19"/>
       <c r="M61" s="19"/>
       <c r="N61" s="19"/>
@@ -8281,9 +8290,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q61" s="20"/>
-      <c r="R61" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R61" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S61" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8327,9 +8336,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
-      <c r="K62" s="19">
-        <v>0.5</v>
-      </c>
+      <c r="K62" s="26"/>
       <c r="L62" s="19"/>
       <c r="M62" s="19"/>
       <c r="N62" s="19"/>
@@ -8339,9 +8346,9 @@
         <v>ДА</v>
       </c>
       <c r="Q62" s="20"/>
-      <c r="R62" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R62" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S62" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8411,9 +8418,9 @@
         <v>ДА</v>
       </c>
       <c r="Q63" s="20"/>
-      <c r="R63" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R63" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S63" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8483,9 +8490,9 @@
         <v>ДА</v>
       </c>
       <c r="Q64" s="20"/>
-      <c r="R64" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R64" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S64" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8506,7 +8513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>311</v>
       </c>
@@ -8529,9 +8536,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="19"/>
-      <c r="K65" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="K65" s="26"/>
       <c r="L65" s="19"/>
       <c r="M65" s="19"/>
       <c r="N65" s="19"/>
@@ -8541,9 +8546,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q65" s="20"/>
-      <c r="R65" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R65" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S65" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8613,9 +8618,9 @@
         <v>ДА</v>
       </c>
       <c r="Q66" s="20"/>
-      <c r="R66" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R66" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S66" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8685,9 +8690,9 @@
         <v>ДА</v>
       </c>
       <c r="Q67" s="20"/>
-      <c r="R67" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R67" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S67" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8757,9 +8762,9 @@
         <v>ДА</v>
       </c>
       <c r="Q68" s="20"/>
-      <c r="R68" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R68" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S68" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8829,9 +8834,9 @@
         <v>ДА</v>
       </c>
       <c r="Q69" s="20"/>
-      <c r="R69" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R69" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S69" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8901,9 +8906,9 @@
         <v>ДА</v>
       </c>
       <c r="Q70" s="20"/>
-      <c r="R70" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R70" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S70" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -8973,9 +8978,9 @@
         <v>ДА</v>
       </c>
       <c r="Q71" s="20"/>
-      <c r="R71" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R71" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S71" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9045,9 +9050,9 @@
         <v>ДА</v>
       </c>
       <c r="Q72" s="20"/>
-      <c r="R72" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R72" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S72" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9117,9 +9122,9 @@
         <v>ДА</v>
       </c>
       <c r="Q73" s="20"/>
-      <c r="R73" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R73" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S73" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9189,9 +9194,9 @@
         <v>ДА</v>
       </c>
       <c r="Q74" s="20"/>
-      <c r="R74" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R74" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S74" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9257,9 +9262,9 @@
         <v>ДА</v>
       </c>
       <c r="Q75" s="20"/>
-      <c r="R75" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R75" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S75" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9280,7 +9285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
         <v>320</v>
       </c>
@@ -9303,9 +9308,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="19"/>
-      <c r="K76" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="K76" s="26"/>
       <c r="L76" s="19"/>
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
@@ -9315,9 +9318,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q76" s="20"/>
-      <c r="R76" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R76" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S76" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9387,9 +9390,9 @@
         <v>ДА</v>
       </c>
       <c r="Q77" s="20"/>
-      <c r="R77" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R77" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S77" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9410,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
         <v>322</v>
       </c>
@@ -9433,9 +9436,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="19"/>
-      <c r="K78" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K78" s="26"/>
       <c r="L78" s="19"/>
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
@@ -9445,9 +9446,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q78" s="20"/>
-      <c r="R78" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R78" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S78" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9513,9 +9514,9 @@
         <v>ДА</v>
       </c>
       <c r="Q79" s="20"/>
-      <c r="R79" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R79" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S79" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9585,9 +9586,9 @@
         <v>ДА</v>
       </c>
       <c r="Q80" s="20"/>
-      <c r="R80" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R80" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S80" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9657,9 +9658,9 @@
         <v>ДА</v>
       </c>
       <c r="Q81" s="20"/>
-      <c r="R81" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R81" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S81" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9733,9 +9734,9 @@
       <c r="Q82" s="29">
         <v>5</v>
       </c>
-      <c r="R82" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R82" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S82" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9749,13 +9750,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V82" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>1</v>
-      </c>
-      <c r="W82" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V82" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W82" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X82" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -9815,9 +9816,9 @@
       <c r="Q83" s="29">
         <v>5</v>
       </c>
-      <c r="R83" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R83" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S83" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9831,20 +9832,20 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V83" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.84</v>
-      </c>
-      <c r="W83" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V83" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W83" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X83" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>327</v>
       </c>
@@ -9867,9 +9868,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="19"/>
-      <c r="K84" s="19">
-        <v>0.18</v>
-      </c>
+      <c r="K84" s="26"/>
       <c r="L84" s="19"/>
       <c r="M84" s="19"/>
       <c r="N84" s="19"/>
@@ -9879,9 +9878,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q84" s="20"/>
-      <c r="R84" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R84" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S84" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9902,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>328</v>
       </c>
@@ -9925,9 +9924,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="19"/>
-      <c r="K85" s="19">
-        <v>0.18</v>
-      </c>
+      <c r="K85" s="26"/>
       <c r="L85" s="19"/>
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
@@ -9937,9 +9934,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q85" s="20"/>
-      <c r="R85" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R85" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S85" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -9960,7 +9957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>329</v>
       </c>
@@ -9983,9 +9980,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
-      <c r="K86" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="K86" s="26"/>
       <c r="L86" s="19"/>
       <c r="M86" s="19"/>
       <c r="N86" s="19"/>
@@ -9995,9 +9990,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q86" s="20"/>
-      <c r="R86" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R86" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S86" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10018,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>330</v>
       </c>
@@ -10041,9 +10036,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="19"/>
-      <c r="K87" s="19">
-        <v>0.14499999999999999</v>
-      </c>
+      <c r="K87" s="26"/>
       <c r="L87" s="19"/>
       <c r="M87" s="19"/>
       <c r="N87" s="19"/>
@@ -10053,9 +10046,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q87" s="20"/>
-      <c r="R87" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R87" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S87" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10076,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>331</v>
       </c>
@@ -10099,9 +10092,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="19"/>
-      <c r="K88" s="19">
-        <v>0.18</v>
-      </c>
+      <c r="K88" s="26"/>
       <c r="L88" s="19"/>
       <c r="M88" s="19"/>
       <c r="N88" s="19"/>
@@ -10111,9 +10102,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q88" s="20"/>
-      <c r="R88" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R88" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S88" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10134,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>332</v>
       </c>
@@ -10157,9 +10148,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="19"/>
-      <c r="K89" s="19">
-        <v>0.18</v>
-      </c>
+      <c r="K89" s="26"/>
       <c r="L89" s="19"/>
       <c r="M89" s="19"/>
       <c r="N89" s="19"/>
@@ -10169,9 +10158,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q89" s="20"/>
-      <c r="R89" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R89" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S89" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10192,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>333</v>
       </c>
@@ -10217,9 +10206,7 @@
       <c r="J90" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="K90" s="19">
-        <v>0.15</v>
-      </c>
+      <c r="K90" s="26"/>
       <c r="L90" s="19"/>
       <c r="M90" s="19"/>
       <c r="N90" s="19"/>
@@ -10229,9 +10216,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q90" s="20"/>
-      <c r="R90" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R90" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S90" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10252,7 +10239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>334</v>
       </c>
@@ -10275,9 +10262,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
-      <c r="K91" s="19">
-        <v>0.15</v>
-      </c>
+      <c r="K91" s="26"/>
       <c r="L91" s="19"/>
       <c r="M91" s="19"/>
       <c r="N91" s="19"/>
@@ -10287,9 +10272,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q91" s="20"/>
-      <c r="R91" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R91" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S91" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10310,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>335</v>
       </c>
@@ -10333,9 +10318,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="19"/>
-      <c r="K92" s="19">
-        <v>0.16</v>
-      </c>
+      <c r="K92" s="26"/>
       <c r="L92" s="19"/>
       <c r="M92" s="19"/>
       <c r="N92" s="19"/>
@@ -10345,9 +10328,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q92" s="20"/>
-      <c r="R92" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R92" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S92" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10368,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>336</v>
       </c>
@@ -10391,9 +10374,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="19"/>
-      <c r="K93" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="K93" s="26"/>
       <c r="L93" s="19"/>
       <c r="M93" s="19"/>
       <c r="N93" s="19"/>
@@ -10403,9 +10384,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q93" s="20"/>
-      <c r="R93" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R93" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S93" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10426,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>337</v>
       </c>
@@ -10449,9 +10430,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
-      <c r="K94" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="K94" s="26"/>
       <c r="L94" s="19"/>
       <c r="M94" s="19"/>
       <c r="N94" s="19"/>
@@ -10461,9 +10440,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q94" s="20"/>
-      <c r="R94" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R94" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S94" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10484,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>338</v>
       </c>
@@ -10507,9 +10486,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="19"/>
-      <c r="K95" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="K95" s="26"/>
       <c r="L95" s="19"/>
       <c r="M95" s="19"/>
       <c r="N95" s="19"/>
@@ -10519,9 +10496,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q95" s="20"/>
-      <c r="R95" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R95" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S95" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10542,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>339</v>
       </c>
@@ -10565,9 +10542,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="19"/>
-      <c r="K96" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="K96" s="26"/>
       <c r="L96" s="19"/>
       <c r="M96" s="19"/>
       <c r="N96" s="19"/>
@@ -10577,9 +10552,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q96" s="20"/>
-      <c r="R96" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R96" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S96" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10600,7 +10575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>340</v>
       </c>
@@ -10623,9 +10598,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="19"/>
-      <c r="K97" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="K97" s="26"/>
       <c r="L97" s="19"/>
       <c r="M97" s="19"/>
       <c r="N97" s="19"/>
@@ -10635,9 +10608,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q97" s="20"/>
-      <c r="R97" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R97" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S97" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10658,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>341</v>
       </c>
@@ -10681,9 +10654,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="19"/>
-      <c r="K98" s="19">
-        <v>0.12</v>
-      </c>
+      <c r="K98" s="26"/>
       <c r="L98" s="19"/>
       <c r="M98" s="19"/>
       <c r="N98" s="19"/>
@@ -10693,9 +10664,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q98" s="20"/>
-      <c r="R98" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R98" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S98" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10716,7 +10687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>342</v>
       </c>
@@ -10739,9 +10710,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="19"/>
-      <c r="K99" s="19">
-        <v>0.09</v>
-      </c>
+      <c r="K99" s="26"/>
       <c r="L99" s="19"/>
       <c r="M99" s="19"/>
       <c r="N99" s="19"/>
@@ -10751,9 +10720,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q99" s="20"/>
-      <c r="R99" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R99" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S99" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10774,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>343</v>
       </c>
@@ -10797,9 +10766,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="19"/>
-      <c r="K100" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K100" s="26"/>
       <c r="L100" s="19"/>
       <c r="M100" s="19"/>
       <c r="N100" s="19"/>
@@ -10809,9 +10776,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q100" s="20"/>
-      <c r="R100" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R100" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S100" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10881,9 +10848,9 @@
         <v>ДА</v>
       </c>
       <c r="Q101" s="20"/>
-      <c r="R101" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R101" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S101" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -10953,9 +10920,9 @@
         <v>ДА</v>
       </c>
       <c r="Q102" s="20"/>
-      <c r="R102" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R102" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S102" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11029,9 +10996,9 @@
       <c r="Q103" s="64">
         <v>5</v>
       </c>
-      <c r="R103" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R103" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S103" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11045,20 +11012,20 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V103" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.96</v>
-      </c>
-      <c r="W103" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V103" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W103" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X103" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>347</v>
       </c>
@@ -11081,9 +11048,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="19"/>
-      <c r="K104" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K104" s="26"/>
       <c r="L104" s="19"/>
       <c r="M104" s="19"/>
       <c r="N104" s="19"/>
@@ -11093,9 +11058,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q104" s="20"/>
-      <c r="R104" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R104" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S104" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11116,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>348</v>
       </c>
@@ -11139,9 +11104,7 @@
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
-      <c r="K105" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K105" s="26"/>
       <c r="L105" s="19"/>
       <c r="M105" s="19"/>
       <c r="N105" s="19"/>
@@ -11151,9 +11114,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q105" s="20"/>
-      <c r="R105" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R105" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S105" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11174,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>349</v>
       </c>
@@ -11197,9 +11160,7 @@
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="19"/>
-      <c r="K106" s="19">
-        <v>0.48</v>
-      </c>
+      <c r="K106" s="26"/>
       <c r="L106" s="19"/>
       <c r="M106" s="19"/>
       <c r="N106" s="19"/>
@@ -11209,9 +11170,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q106" s="20"/>
-      <c r="R106" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R106" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S106" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11281,9 +11242,9 @@
         <v>ДА</v>
       </c>
       <c r="Q107" s="20"/>
-      <c r="R107" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R107" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S107" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11304,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>351</v>
       </c>
@@ -11327,9 +11288,7 @@
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="19"/>
-      <c r="K108" s="19">
-        <v>0.48</v>
-      </c>
+      <c r="K108" s="26"/>
       <c r="L108" s="19"/>
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
@@ -11339,9 +11298,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q108" s="20"/>
-      <c r="R108" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R108" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S108" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11362,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>352</v>
       </c>
@@ -11385,9 +11344,7 @@
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="19"/>
-      <c r="K109" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="K109" s="26"/>
       <c r="L109" s="19"/>
       <c r="M109" s="19"/>
       <c r="N109" s="19"/>
@@ -11397,9 +11354,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q109" s="20"/>
-      <c r="R109" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R109" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S109" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11420,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>353</v>
       </c>
@@ -11443,9 +11400,7 @@
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="19"/>
-      <c r="K110" s="19">
-        <v>0.09</v>
-      </c>
+      <c r="K110" s="26"/>
       <c r="L110" s="19"/>
       <c r="M110" s="19"/>
       <c r="N110" s="19"/>
@@ -11455,9 +11410,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q110" s="20"/>
-      <c r="R110" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R110" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S110" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11531,9 +11486,9 @@
       <c r="Q111" s="29">
         <v>4</v>
       </c>
-      <c r="R111" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R111" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S111" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11547,20 +11502,20 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V111" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.84</v>
-      </c>
-      <c r="W111" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V111" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W111" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X111" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>355</v>
       </c>
@@ -11609,9 +11564,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q112" s="20"/>
-      <c r="R112" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R112" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S112" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11677,9 +11632,9 @@
         <v>ДА</v>
       </c>
       <c r="Q113" s="20"/>
-      <c r="R113" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R113" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S113" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11747,9 +11702,9 @@
         <v>ДА</v>
       </c>
       <c r="Q114" s="20"/>
-      <c r="R114" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R114" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S114" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11819,9 +11774,9 @@
         <v>ДА</v>
       </c>
       <c r="Q115" s="20"/>
-      <c r="R115" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R115" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S115" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11842,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>295</v>
       </c>
@@ -11865,9 +11820,7 @@
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="19"/>
-      <c r="K116" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K116" s="26"/>
       <c r="L116" s="19"/>
       <c r="M116" s="19"/>
       <c r="N116" s="19"/>
@@ -11877,9 +11830,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q116" s="20"/>
-      <c r="R116" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R116" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S116" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -11949,9 +11902,9 @@
         <v>ДА</v>
       </c>
       <c r="Q117" s="20"/>
-      <c r="R117" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R117" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S117" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12025,9 +11978,9 @@
       <c r="Q118" s="64">
         <v>5</v>
       </c>
-      <c r="R118" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R118" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S118" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12041,13 +11994,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V118" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W118" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V118" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W118" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X118" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -12103,9 +12056,9 @@
         <v>ДА</v>
       </c>
       <c r="Q119" s="20"/>
-      <c r="R119" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R119" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S119" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12179,9 +12132,9 @@
       <c r="Q120" s="29">
         <v>4</v>
       </c>
-      <c r="R120" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R120" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S120" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12195,13 +12148,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>3</v>
       </c>
-      <c r="V120" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.64</v>
-      </c>
-      <c r="W120" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V120" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W120" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X120" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -12261,9 +12214,9 @@
       <c r="Q121" s="29">
         <v>5</v>
       </c>
-      <c r="R121" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R121" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S121" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12277,13 +12230,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V121" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.76</v>
-      </c>
-      <c r="W121" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V121" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W121" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X121" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -12337,9 +12290,9 @@
       <c r="Q122" s="29">
         <v>4</v>
       </c>
-      <c r="R122" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R122" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S122" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12353,13 +12306,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V122" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.72</v>
-      </c>
-      <c r="W122" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V122" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W122" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X122" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -12419,9 +12372,9 @@
       <c r="Q123" s="29">
         <v>4</v>
       </c>
-      <c r="R123" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R123" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S123" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12435,20 +12388,20 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V123" s="43">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.8</v>
-      </c>
-      <c r="W123" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V123" s="43" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W123" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X123" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="19" t="s">
         <v>365</v>
       </c>
@@ -12491,9 +12444,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q124" s="20"/>
-      <c r="R124" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R124" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S124" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12561,9 +12514,9 @@
       <c r="Q125" s="29">
         <v>4</v>
       </c>
-      <c r="R125" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R125" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S125" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12577,20 +12530,20 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V125" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.8</v>
-      </c>
-      <c r="W125" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V125" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W125" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X125" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>367</v>
       </c>
@@ -12627,9 +12580,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q126" s="20"/>
-      <c r="R126" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R126" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S126" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12703,9 +12656,9 @@
       <c r="Q127" s="29">
         <v>5</v>
       </c>
-      <c r="R127" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R127" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S127" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12719,13 +12672,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>4</v>
       </c>
-      <c r="V127" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.76</v>
-      </c>
-      <c r="W127" s="5" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V127" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W127" s="5" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X127" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -12781,9 +12734,9 @@
         <v>ДА</v>
       </c>
       <c r="Q128" s="20"/>
-      <c r="R128" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R128" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S128" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12853,9 +12806,9 @@
         <v>ДА</v>
       </c>
       <c r="Q129" s="20"/>
-      <c r="R129" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R129" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S129" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12929,9 +12882,9 @@
       <c r="Q130" s="29">
         <v>5</v>
       </c>
-      <c r="R130" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R130" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S130" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -12945,13 +12898,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V130" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.96</v>
-      </c>
-      <c r="W130" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V130" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W130" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X130" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -13011,9 +12964,9 @@
       <c r="Q131" s="29">
         <v>5</v>
       </c>
-      <c r="R131" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R131" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S131" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13027,13 +12980,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V131" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.84</v>
-      </c>
-      <c r="W131" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V131" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W131" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X131" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -13093,9 +13046,9 @@
       <c r="Q132" s="29">
         <v>5</v>
       </c>
-      <c r="R132" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R132" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S132" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13109,13 +13062,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V132" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.68</v>
-      </c>
-      <c r="W132" s="5" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V132" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W132" s="5" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X132" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -13175,9 +13128,9 @@
       <c r="Q133" s="29">
         <v>5</v>
       </c>
-      <c r="R133" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R133" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S133" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13191,13 +13144,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V133" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>1</v>
-      </c>
-      <c r="W133" s="5" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V133" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W133" s="5" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X133" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -13253,9 +13206,9 @@
         <v>ДА</v>
       </c>
       <c r="Q134" s="20"/>
-      <c r="R134" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>2</v>
+      <c r="R134" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S134" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13276,7 +13229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>376</v>
       </c>
@@ -13319,9 +13272,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q135" s="20"/>
-      <c r="R135" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>2</v>
+      <c r="R135" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S135" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13391,9 +13344,9 @@
         <v>ДА</v>
       </c>
       <c r="Q136" s="20"/>
-      <c r="R136" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R136" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S136" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13414,7 +13367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>378</v>
       </c>
@@ -13463,9 +13416,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q137" s="20"/>
-      <c r="R137" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R137" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S137" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13529,9 +13482,9 @@
         <v>ДА</v>
       </c>
       <c r="Q138" s="20"/>
-      <c r="R138" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R138" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S138" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13577,9 +13530,7 @@
       <c r="J139" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="K139" s="19">
-        <v>0.25</v>
-      </c>
+      <c r="K139" s="26"/>
       <c r="L139" s="19"/>
       <c r="M139" s="19">
         <v>2</v>
@@ -13595,9 +13546,9 @@
         <v>ДА</v>
       </c>
       <c r="Q139" s="20"/>
-      <c r="R139" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R139" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S139" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13667,9 +13618,9 @@
         <v>ДА</v>
       </c>
       <c r="Q140" s="20"/>
-      <c r="R140" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R140" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S140" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13743,9 +13694,9 @@
       <c r="Q141" s="29">
         <v>4</v>
       </c>
-      <c r="R141" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R141" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S141" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13759,13 +13710,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V141" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.88</v>
-      </c>
-      <c r="W141" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V141" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W141" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X141" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -13825,9 +13776,9 @@
       <c r="Q142" s="29">
         <v>5</v>
       </c>
-      <c r="R142" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R142" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S142" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13841,20 +13792,20 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V142" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W142" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V142" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W142" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X142" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>384</v>
       </c>
@@ -13893,9 +13844,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q143" s="20"/>
-      <c r="R143" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R143" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S143" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13916,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="19" t="s">
         <v>385</v>
       </c>
@@ -13957,9 +13908,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q144" s="20"/>
-      <c r="R144" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R144" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S144" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -13980,7 +13931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="19" t="s">
         <v>386</v>
       </c>
@@ -14021,9 +13972,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q145" s="20"/>
-      <c r="R145" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R145" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S145" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14044,7 +13995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="19" t="s">
         <v>387</v>
       </c>
@@ -14085,9 +14036,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q146" s="20"/>
-      <c r="R146" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R146" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S146" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14108,7 +14059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="19" t="s">
         <v>388</v>
       </c>
@@ -14149,9 +14100,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q147" s="20"/>
-      <c r="R147" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R147" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S147" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14172,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="19" t="s">
         <v>389</v>
       </c>
@@ -14213,9 +14164,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q148" s="20"/>
-      <c r="R148" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R148" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S148" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14236,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="19" t="s">
         <v>390</v>
       </c>
@@ -14277,9 +14228,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q149" s="20"/>
-      <c r="R149" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R149" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S149" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14349,9 +14300,9 @@
         <v>ДА</v>
       </c>
       <c r="Q150" s="20"/>
-      <c r="R150" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R150" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S150" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14421,9 +14372,9 @@
         <v>ДА</v>
       </c>
       <c r="Q151" s="20"/>
-      <c r="R151" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R151" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S151" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14493,9 +14444,9 @@
         <v>ДА</v>
       </c>
       <c r="Q152" s="20"/>
-      <c r="R152" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R152" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S152" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14569,9 +14520,9 @@
       <c r="Q153" s="29">
         <v>5</v>
       </c>
-      <c r="R153" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R153" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S153" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14585,13 +14536,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V153" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.88</v>
-      </c>
-      <c r="W153" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V153" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W153" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X153" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -14651,9 +14602,9 @@
       <c r="Q154" s="29">
         <v>5</v>
       </c>
-      <c r="R154" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R154" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S154" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14667,13 +14618,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V154" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.96</v>
-      </c>
-      <c r="W154" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V154" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W154" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X154" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -14733,9 +14684,9 @@
       <c r="Q155" s="29">
         <v>4</v>
       </c>
-      <c r="R155" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R155" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S155" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14749,13 +14700,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>4</v>
       </c>
-      <c r="V155" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.8</v>
-      </c>
-      <c r="W155" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V155" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W155" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X155" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -14805,9 +14756,9 @@
         <v>ДА</v>
       </c>
       <c r="Q156" s="20"/>
-      <c r="R156" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R156" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S156" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14828,7 +14779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="19" t="s">
         <v>398</v>
       </c>
@@ -14877,9 +14828,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q157" s="20"/>
-      <c r="R157" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R157" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S157" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14953,9 +14904,9 @@
       <c r="Q158" s="64">
         <v>5</v>
       </c>
-      <c r="R158" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R158" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S158" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -14969,13 +14920,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V158" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.76</v>
-      </c>
-      <c r="W158" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V158" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W158" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X158" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15031,9 +14982,9 @@
         <v>ДА</v>
       </c>
       <c r="Q159" s="20"/>
-      <c r="R159" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R159" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S159" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15054,7 +15005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:24" s="3" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>401</v>
       </c>
@@ -15103,9 +15054,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q160" s="20"/>
-      <c r="R160" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R160" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S160" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15179,9 +15130,9 @@
       <c r="Q161" s="29">
         <v>5</v>
       </c>
-      <c r="R161" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R161" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S161" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15195,13 +15146,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V161" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.88</v>
-      </c>
-      <c r="W161" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V161" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W161" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X161" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15261,9 +15212,9 @@
       <c r="Q162" s="29">
         <v>5</v>
       </c>
-      <c r="R162" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R162" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S162" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15277,13 +15228,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V162" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.76</v>
-      </c>
-      <c r="W162" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V162" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W162" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X162" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15343,9 +15294,9 @@
       <c r="Q163" s="29">
         <v>5</v>
       </c>
-      <c r="R163" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R163" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S163" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15359,13 +15310,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V163" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.8</v>
-      </c>
-      <c r="W163" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V163" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W163" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X163" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15425,9 +15376,9 @@
       <c r="Q164" s="29">
         <v>5</v>
       </c>
-      <c r="R164" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R164" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S164" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15441,13 +15392,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V164" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.64</v>
-      </c>
-      <c r="W164" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V164" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W164" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X164" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15507,9 +15458,9 @@
       <c r="Q165" s="29">
         <v>5</v>
       </c>
-      <c r="R165" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R165" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S165" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15523,13 +15474,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V165" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.76</v>
-      </c>
-      <c r="W165" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V165" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W165" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X165" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15589,9 +15540,9 @@
       <c r="Q166" s="64">
         <v>4</v>
       </c>
-      <c r="R166" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R166" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S166" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15605,13 +15556,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V166" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W166" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V166" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W166" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X166" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15666,9 +15617,9 @@
       <c r="Q167" s="64">
         <v>5</v>
       </c>
-      <c r="R167" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R167" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S167" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15682,13 +15633,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V167" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.68</v>
-      </c>
-      <c r="W167" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V167" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W167" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X167" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15744,9 +15695,9 @@
         <v>ДА</v>
       </c>
       <c r="Q168" s="20"/>
-      <c r="R168" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R168" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S168" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15818,9 +15769,9 @@
       <c r="Q169" s="29">
         <v>4</v>
       </c>
-      <c r="R169" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R169" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S169" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15834,13 +15785,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>3</v>
       </c>
-      <c r="V169" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.6</v>
-      </c>
-      <c r="W169" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V169" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W169" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X169" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15900,9 +15851,9 @@
       <c r="Q170" s="29">
         <v>5</v>
       </c>
-      <c r="R170" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R170" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S170" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15916,13 +15867,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V170" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.96</v>
-      </c>
-      <c r="W170" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V170" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W170" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X170" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -15976,9 +15927,9 @@
       <c r="Q171" s="29">
         <v>4</v>
       </c>
-      <c r="R171" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R171" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S171" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -15992,13 +15943,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V171" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.76</v>
-      </c>
-      <c r="W171" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V171" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W171" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X171" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16058,9 +16009,9 @@
       <c r="Q172" s="29">
         <v>4</v>
       </c>
-      <c r="R172" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R172" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S172" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16074,13 +16025,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V172" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W172" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V172" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W172" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X172" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16138,9 +16089,9 @@
       <c r="Q173" s="29">
         <v>4</v>
       </c>
-      <c r="R173" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R173" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S173" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16154,13 +16105,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V173" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.84</v>
-      </c>
-      <c r="W173" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V173" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W173" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X173" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16218,9 +16169,9 @@
       <c r="Q174" s="29">
         <v>4</v>
       </c>
-      <c r="R174" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R174" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S174" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16234,13 +16185,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V174" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.88</v>
-      </c>
-      <c r="W174" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V174" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W174" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X174" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16298,9 +16249,9 @@
       <c r="Q175" s="29">
         <v>5</v>
       </c>
-      <c r="R175" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R175" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S175" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16314,13 +16265,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V175" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.96</v>
-      </c>
-      <c r="W175" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V175" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W175" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X175" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16378,9 +16329,9 @@
       <c r="Q176" s="29">
         <v>5</v>
       </c>
-      <c r="R176" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R176" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S176" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16394,13 +16345,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V176" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.88</v>
-      </c>
-      <c r="W176" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V176" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W176" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X176" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16458,9 +16409,9 @@
       <c r="Q177" s="29">
         <v>5</v>
       </c>
-      <c r="R177" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R177" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S177" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16474,13 +16425,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V177" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.88</v>
-      </c>
-      <c r="W177" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Отличное качество</v>
+      <c r="V177" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W177" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X177" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16534,9 +16485,9 @@
         <v>ДА</v>
       </c>
       <c r="Q178" s="20"/>
-      <c r="R178" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R178" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S178" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16557,7 +16508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:24" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:24" s="3" customFormat="1" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="19" t="s">
         <v>293</v>
       </c>
@@ -16580,9 +16531,7 @@
       <c r="H179" s="19"/>
       <c r="I179" s="19"/>
       <c r="J179" s="19"/>
-      <c r="K179" s="19">
-        <v>0.4</v>
-      </c>
+      <c r="K179" s="26"/>
       <c r="L179" s="19"/>
       <c r="M179" s="19"/>
       <c r="N179" s="19"/>
@@ -16592,9 +16541,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q179" s="20"/>
-      <c r="R179" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R179" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S179" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16666,9 +16615,9 @@
       <c r="Q180" s="29">
         <v>5</v>
       </c>
-      <c r="R180" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R180" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S180" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16682,13 +16631,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V180" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W180" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V180" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W180" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X180" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16738,9 +16687,9 @@
       <c r="Q181" s="29">
         <v>5</v>
       </c>
-      <c r="R181" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R181" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S181" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16754,13 +16703,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V181" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W181" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V181" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W181" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X181" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16810,9 +16759,9 @@
       <c r="Q182" s="29">
         <v>5</v>
       </c>
-      <c r="R182" s="29">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>4</v>
+      <c r="R182" s="29" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S182" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16826,13 +16775,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V182" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W182" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V182" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W182" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X182" s="1">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16892,9 +16841,9 @@
       <c r="Q183" s="64">
         <v>3</v>
       </c>
-      <c r="R183" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R183" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S183" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16908,13 +16857,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V183" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.72</v>
-      </c>
-      <c r="W183" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Хорошее качество</v>
+      <c r="V183" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W183" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X183" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -16962,9 +16911,9 @@
         <v>ДА</v>
       </c>
       <c r="Q184" s="20"/>
-      <c r="R184" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R184" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S184" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -16985,7 +16934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="19" t="s">
         <v>299</v>
       </c>
@@ -17004,9 +16953,7 @@
       <c r="H185" s="19"/>
       <c r="I185" s="19"/>
       <c r="J185" s="19"/>
-      <c r="K185" s="19">
-        <v>0.35</v>
-      </c>
+      <c r="K185" s="26"/>
       <c r="L185" s="19"/>
       <c r="M185" s="19"/>
       <c r="N185" s="19"/>
@@ -17016,9 +16963,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q185" s="20"/>
-      <c r="R185" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R185" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S185" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17088,9 +17035,9 @@
         <v>ДА</v>
       </c>
       <c r="Q186" s="20"/>
-      <c r="R186" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R186" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S186" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17111,7 +17058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
         <v>644</v>
       </c>
@@ -17160,9 +17107,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q187" s="20"/>
-      <c r="R187" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R187" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S187" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17183,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:24" ht="52.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="38" t="s">
         <v>496</v>
       </c>
@@ -17202,9 +17149,7 @@
         <v>417</v>
       </c>
       <c r="J188" s="38"/>
-      <c r="K188" s="41">
-        <v>0</v>
-      </c>
+      <c r="K188" s="41"/>
       <c r="L188" s="38"/>
       <c r="M188" s="38">
         <v>5</v>
@@ -17220,9 +17165,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q188" s="20"/>
-      <c r="R188" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>1</v>
+      <c r="R188" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S188" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17243,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="23" t="s">
         <v>483</v>
       </c>
@@ -17283,9 +17228,9 @@
         <v>884</v>
       </c>
       <c r="Q189" s="21"/>
-      <c r="R189" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R189" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S189" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17306,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="19" t="s">
         <v>756</v>
       </c>
@@ -17353,9 +17298,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q190" s="20"/>
-      <c r="R190" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R190" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S190" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17376,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="19" t="s">
         <v>759</v>
       </c>
@@ -17423,9 +17368,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q191" s="20"/>
-      <c r="R191" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R191" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S191" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17446,7 +17391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="19" t="s">
         <v>762</v>
       </c>
@@ -17493,9 +17438,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q192" s="20"/>
-      <c r="R192" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R192" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S192" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17516,7 +17461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="19" t="s">
         <v>765</v>
       </c>
@@ -17563,9 +17508,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q193" s="20"/>
-      <c r="R193" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R193" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S193" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17586,7 +17531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="19" t="s">
         <v>644</v>
       </c>
@@ -17633,9 +17578,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q194" s="20"/>
-      <c r="R194" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R194" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S194" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17656,7 +17601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="19" t="s">
         <v>770</v>
       </c>
@@ -17703,9 +17648,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q195" s="20"/>
-      <c r="R195" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R195" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S195" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17726,7 +17671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="19" t="s">
         <v>773</v>
       </c>
@@ -17773,9 +17718,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q196" s="20"/>
-      <c r="R196" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R196" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S196" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17796,7 +17741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:24" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="19" t="s">
         <v>749</v>
       </c>
@@ -17837,9 +17782,9 @@
         <v>НЕТ</v>
       </c>
       <c r="Q197" s="20"/>
-      <c r="R197" s="20">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>3</v>
+      <c r="R197" s="20" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S197" s="29">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17913,9 +17858,9 @@
       <c r="Q198" s="64">
         <v>4</v>
       </c>
-      <c r="R198" s="64">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
-        <v>5</v>
+      <c r="R198" s="64" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;0.19,1)</f>
+        <v>#NAME?</v>
       </c>
       <c r="S198" s="64">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -17929,13 +17874,13 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V198" s="30">
-        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
-        <v>0.92</v>
-      </c>
-      <c r="W198" s="45" t="str">
-        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
-        <v>Превосходное качество</v>
+      <c r="V198" s="30" t="e">
+        <f ca="1">SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="W198" s="45" t="e">
+        <f ca="1">_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>#NAME?</v>
       </c>
       <c r="X198" s="5">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
@@ -19396,8 +19341,8 @@
   <sheetPr codeName="Лист3"/>
   <dimension ref="A1:E413"/>
   <sheetViews>
-    <sheetView topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287:E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24228,81 +24173,191 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-      <c r="B285" s="3"/>
-      <c r="C285" s="3"/>
-      <c r="D285" s="11"/>
-      <c r="E285" s="3"/>
+      <c r="A285" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B285" s="3">
+        <v>243</v>
+      </c>
+      <c r="C285" s="4">
+        <v>45926</v>
+      </c>
+      <c r="D285" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="3"/>
+      <c r="A286" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B286" s="3">
+        <v>244</v>
+      </c>
+      <c r="C286" s="4">
+        <v>45926</v>
+      </c>
+      <c r="D286" s="11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-      <c r="B287" s="3"/>
-      <c r="C287" s="3"/>
-      <c r="D287" s="11"/>
-      <c r="E287" s="3"/>
+      <c r="A287" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B287" s="3">
+        <v>246</v>
+      </c>
+      <c r="C287" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D287" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>899</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-      <c r="B288" s="3"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="3"/>
+      <c r="A288" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B288" s="3">
+        <v>247</v>
+      </c>
+      <c r="C288" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D288" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="3"/>
-      <c r="C289" s="3"/>
-      <c r="D289" s="11"/>
-      <c r="E289" s="3"/>
+      <c r="A289" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B289" s="3">
+        <v>248</v>
+      </c>
+      <c r="C289" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D289" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="3"/>
-      <c r="C290" s="3"/>
-      <c r="D290" s="11"/>
-      <c r="E290" s="3"/>
+      <c r="A290" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B290" s="3">
+        <v>249</v>
+      </c>
+      <c r="C290" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D290" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E290" s="3">
+        <v>0.53</v>
+      </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="3"/>
-      <c r="C291" s="3"/>
-      <c r="D291" s="11"/>
-      <c r="E291" s="3"/>
+      <c r="A291" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B291" s="3">
+        <v>250</v>
+      </c>
+      <c r="C291" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D291" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292" s="1"/>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
-      <c r="D292" s="11"/>
-      <c r="E292" s="3"/>
+      <c r="A292" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B292" s="3">
+        <v>251</v>
+      </c>
+      <c r="C292" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D292" s="11">
+        <v>0.26</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293" s="1"/>
-      <c r="B293" s="3"/>
-      <c r="C293" s="3"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="3"/>
+      <c r="A293" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B293" s="3">
+        <v>252</v>
+      </c>
+      <c r="C293" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D293" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294" s="1"/>
-      <c r="B294" s="3"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="11"/>
-      <c r="E294" s="3"/>
+      <c r="A294" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B294" s="3">
+        <v>253</v>
+      </c>
+      <c r="C294" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D294" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295" s="1"/>
-      <c r="B295" s="3"/>
-      <c r="C295" s="3"/>
-      <c r="D295" s="11"/>
-      <c r="E295" s="3"/>
+      <c r="A295" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B295" s="3">
+        <v>254</v>
+      </c>
+      <c r="C295" s="4">
+        <v>45929</v>
+      </c>
+      <c r="D295" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="1"/>
@@ -25131,6 +25186,7 @@
       <c r="E413" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">

--- a/Список пленок и толщин.xlsx
+++ b/Список пленок и толщин.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ОТДЕЛ КАЧЕСТВА\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamynin\Documents\GitHub\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6FB0C2-7A3F-4051-A02A-56A654B85D36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D25213-1D8C-447B-8297-125F6096836B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3625,6 +3625,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3639,21 +3654,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="15" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5033,8 +5033,8 @@
   <dimension ref="A1:X209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB198" sqref="AB198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5738,85 +5738,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="83" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+    <row r="11" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="74" t="s">
         <v>969</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="79">
+      <c r="F11" s="74">
         <v>0.35</v>
       </c>
-      <c r="G11" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H11" s="79" t="s">
+      <c r="G11" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="I11" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="J11" s="79" t="s">
+      <c r="I11" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>961</v>
       </c>
-      <c r="K11" s="81">
+      <c r="K11" s="76">
         <v>0.35</v>
       </c>
-      <c r="L11" s="79">
-        <v>5</v>
-      </c>
-      <c r="M11" s="79">
-        <v>5</v>
-      </c>
-      <c r="N11" s="79">
-        <v>5</v>
-      </c>
-      <c r="O11" s="79" t="s">
+      <c r="L11" s="74">
+        <v>5</v>
+      </c>
+      <c r="M11" s="74">
+        <v>5</v>
+      </c>
+      <c r="N11" s="74">
+        <v>5</v>
+      </c>
+      <c r="O11" s="74" t="s">
         <v>771</v>
       </c>
-      <c r="P11" s="79" t="str">
+      <c r="P11" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q11" s="79">
+      <c r="Q11" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R11" s="79">
+      <c r="R11" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S11" s="79">
+      <c r="S11" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>5</v>
       </c>
-      <c r="T11" s="79">
+      <c r="T11" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U11" s="79">
+      <c r="U11" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V11" s="82">
+      <c r="V11" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.96</v>
       </c>
-      <c r="W11" s="79" t="str">
+      <c r="W11" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X11" s="79">
+      <c r="X11" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -9466,85 +9466,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="83" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="79" t="s">
+    <row r="65" spans="1:24" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="74" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="79" t="s">
+      <c r="D65" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="79" t="s">
+      <c r="E65" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="79">
+      <c r="F65" s="74">
         <v>0.3</v>
       </c>
-      <c r="G65" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H65" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="I65" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="J65" s="79" t="s">
+      <c r="G65" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H65" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="I65" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J65" s="74" t="s">
         <v>961</v>
       </c>
-      <c r="K65" s="81">
+      <c r="K65" s="76">
         <v>0.3</v>
       </c>
-      <c r="L65" s="79">
+      <c r="L65" s="74">
         <v>4</v>
       </c>
-      <c r="M65" s="79">
-        <v>5</v>
-      </c>
-      <c r="N65" s="79">
-        <v>5</v>
-      </c>
-      <c r="O65" s="79" t="s">
+      <c r="M65" s="74">
+        <v>5</v>
+      </c>
+      <c r="N65" s="74">
+        <v>5</v>
+      </c>
+      <c r="O65" s="74" t="s">
         <v>771</v>
       </c>
-      <c r="P65" s="79" t="str">
+      <c r="P65" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q65" s="79">
+      <c r="Q65" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R65" s="79">
+      <c r="R65" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>4</v>
       </c>
-      <c r="S65" s="79">
+      <c r="S65" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T65" s="79">
+      <c r="T65" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U65" s="79">
+      <c r="U65" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V65" s="82">
+      <c r="V65" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.88</v>
       </c>
-      <c r="W65" s="79" t="str">
+      <c r="W65" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Отличное качество</v>
       </c>
-      <c r="X65" s="79">
+      <c r="X65" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -9884,168 +9884,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" s="83" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="79" t="s">
+    <row r="71" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="74" t="s">
         <v>304</v>
       </c>
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="74" t="s">
         <v>970</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="79" t="s">
+      <c r="D71" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="79" t="s">
+      <c r="E71" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="79">
+      <c r="F71" s="74">
         <v>0.4</v>
       </c>
-      <c r="G71" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H71" s="79" t="s">
+      <c r="G71" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H71" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="I71" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="J71" s="79" t="s">
+      <c r="I71" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="K71" s="81">
+      <c r="K71" s="76">
         <v>0.46</v>
       </c>
-      <c r="L71" s="79">
-        <v>5</v>
-      </c>
-      <c r="M71" s="79">
-        <v>5</v>
-      </c>
-      <c r="N71" s="79">
-        <v>5</v>
-      </c>
-      <c r="O71" s="79" t="s">
+      <c r="L71" s="74">
+        <v>5</v>
+      </c>
+      <c r="M71" s="74">
+        <v>5</v>
+      </c>
+      <c r="N71" s="74">
+        <v>5</v>
+      </c>
+      <c r="O71" s="74" t="s">
         <v>771</v>
       </c>
-      <c r="P71" s="79" t="str">
+      <c r="P71" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q71" s="79">
+      <c r="Q71" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R71" s="79">
+      <c r="R71" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S71" s="79">
+      <c r="S71" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>5</v>
       </c>
-      <c r="T71" s="79">
+      <c r="T71" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U71" s="79">
+      <c r="U71" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V71" s="82">
+      <c r="V71" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>1</v>
       </c>
-      <c r="W71" s="79" t="str">
+      <c r="W71" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X71" s="79">
+      <c r="X71" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" s="83" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="79" t="s">
+    <row r="72" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="74" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="79" t="s">
+      <c r="B72" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="79" t="s">
+      <c r="C72" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="79" t="s">
+      <c r="D72" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="79" t="s">
+      <c r="E72" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="79">
+      <c r="F72" s="74">
         <v>0.4</v>
       </c>
-      <c r="G72" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H72" s="79" t="s">
+      <c r="G72" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H72" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="I72" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="J72" s="79" t="s">
+      <c r="I72" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J72" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="K72" s="81">
+      <c r="K72" s="76">
         <v>0.45</v>
       </c>
-      <c r="L72" s="79">
+      <c r="L72" s="74">
         <v>4</v>
       </c>
-      <c r="M72" s="79">
-        <v>5</v>
-      </c>
-      <c r="N72" s="79">
-        <v>5</v>
-      </c>
-      <c r="O72" s="79" t="s">
+      <c r="M72" s="74">
+        <v>5</v>
+      </c>
+      <c r="N72" s="74">
+        <v>5</v>
+      </c>
+      <c r="O72" s="74" t="s">
         <v>771</v>
       </c>
-      <c r="P72" s="79" t="str">
+      <c r="P72" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q72" s="79">
+      <c r="Q72" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R72" s="79">
+      <c r="R72" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S72" s="79">
+      <c r="S72" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T72" s="79">
+      <c r="T72" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U72" s="79">
+      <c r="U72" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V72" s="82">
+      <c r="V72" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.96</v>
       </c>
-      <c r="W72" s="79" t="str">
+      <c r="W72" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X72" s="79">
+      <c r="X72" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -16402,85 +16402,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="83" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="79" t="s">
+    <row r="161" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="74" t="s">
         <v>389</v>
       </c>
-      <c r="B161" s="79" t="s">
+      <c r="B161" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="C161" s="79" t="s">
+      <c r="C161" s="74" t="s">
         <v>248</v>
       </c>
-      <c r="D161" s="79" t="s">
+      <c r="D161" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="79" t="s">
+      <c r="E161" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="F161" s="79">
+      <c r="F161" s="74">
         <v>0.27</v>
       </c>
-      <c r="G161" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H161" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="I161" s="79" t="s">
+      <c r="G161" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H161" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="I161" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="J161" s="79" t="s">
+      <c r="J161" s="74" t="s">
         <v>961</v>
       </c>
-      <c r="K161" s="81">
+      <c r="K161" s="76">
         <v>0.26</v>
       </c>
-      <c r="L161" s="79">
+      <c r="L161" s="74">
         <v>4</v>
       </c>
-      <c r="M161" s="79">
+      <c r="M161" s="74">
         <v>2</v>
       </c>
-      <c r="N161" s="79">
-        <v>5</v>
-      </c>
-      <c r="O161" s="79">
-        <v>1</v>
-      </c>
-      <c r="P161" s="79" t="str">
+      <c r="N161" s="74">
+        <v>5</v>
+      </c>
+      <c r="O161" s="74">
+        <v>1</v>
+      </c>
+      <c r="P161" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q161" s="79">
+      <c r="Q161" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R161" s="79">
+      <c r="R161" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>3</v>
       </c>
-      <c r="S161" s="79">
+      <c r="S161" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T161" s="79">
+      <c r="T161" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U161" s="79">
+      <c r="U161" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V161" s="82">
+      <c r="V161" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.72</v>
       </c>
-      <c r="W161" s="79" t="str">
+      <c r="W161" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Хорошее качество</v>
       </c>
-      <c r="X161" s="79">
+      <c r="X161" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -16643,85 +16643,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:24" s="83" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="79" t="s">
+    <row r="164" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="74" t="s">
         <v>392</v>
       </c>
-      <c r="B164" s="79" t="s">
+      <c r="B164" s="74" t="s">
         <v>253</v>
       </c>
-      <c r="C164" s="79" t="s">
+      <c r="C164" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D164" s="79" t="s">
+      <c r="D164" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="E164" s="79" t="s">
+      <c r="E164" s="74" t="s">
         <v>205</v>
       </c>
-      <c r="F164" s="79">
+      <c r="F164" s="74">
         <v>0.27</v>
       </c>
-      <c r="G164" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H164" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="I164" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="J164" s="79" t="s">
+      <c r="G164" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H164" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="I164" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J164" s="74" t="s">
         <v>800</v>
       </c>
-      <c r="K164" s="81">
+      <c r="K164" s="76">
         <v>0.27</v>
       </c>
-      <c r="L164" s="79">
+      <c r="L164" s="74">
         <v>2</v>
       </c>
-      <c r="M164" s="79">
+      <c r="M164" s="74">
         <v>2</v>
       </c>
-      <c r="N164" s="79">
-        <v>5</v>
-      </c>
-      <c r="O164" s="79">
-        <v>1</v>
-      </c>
-      <c r="P164" s="79" t="str">
+      <c r="N164" s="74">
+        <v>5</v>
+      </c>
+      <c r="O164" s="74">
+        <v>1</v>
+      </c>
+      <c r="P164" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q164" s="79">
+      <c r="Q164" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R164" s="79">
+      <c r="R164" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>3</v>
       </c>
-      <c r="S164" s="79">
+      <c r="S164" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>2</v>
       </c>
-      <c r="T164" s="79">
+      <c r="T164" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U164" s="79">
+      <c r="U164" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V164" s="82">
+      <c r="V164" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.68</v>
       </c>
-      <c r="W164" s="79" t="str">
+      <c r="W164" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Хорошее качество</v>
       </c>
-      <c r="X164" s="79">
+      <c r="X164" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -17377,85 +17377,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:24" s="83" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="79" t="s">
+    <row r="173" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="B173" s="79" t="s">
+      <c r="B173" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="C173" s="79" t="s">
+      <c r="C173" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="D173" s="79" t="s">
+      <c r="D173" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="E173" s="80" t="s">
+      <c r="E173" s="75" t="s">
         <v>504</v>
       </c>
-      <c r="F173" s="79">
+      <c r="F173" s="74">
         <v>0.33</v>
       </c>
-      <c r="G173" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="H173" s="79" t="s">
+      <c r="G173" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="H173" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="I173" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="J173" s="79" t="s">
+      <c r="I173" s="74" t="s">
+        <v>409</v>
+      </c>
+      <c r="J173" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="K173" s="81">
+      <c r="K173" s="76">
         <v>0.36</v>
       </c>
-      <c r="L173" s="79">
+      <c r="L173" s="74">
         <v>4</v>
       </c>
-      <c r="M173" s="79">
-        <v>5</v>
-      </c>
-      <c r="N173" s="79">
-        <v>5</v>
-      </c>
-      <c r="O173" s="79">
-        <v>1</v>
-      </c>
-      <c r="P173" s="79" t="str">
+      <c r="M173" s="74">
+        <v>5</v>
+      </c>
+      <c r="N173" s="74">
+        <v>5</v>
+      </c>
+      <c r="O173" s="74">
+        <v>1</v>
+      </c>
+      <c r="P173" s="74" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q173" s="79">
+      <c r="Q173" s="74">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R173" s="79">
+      <c r="R173" s="74">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S173" s="79">
+      <c r="S173" s="74">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T173" s="79">
+      <c r="T173" s="74">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U173" s="79">
+      <c r="U173" s="74">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V173" s="82">
+      <c r="V173" s="77">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.96</v>
       </c>
-      <c r="W173" s="79" t="str">
+      <c r="W173" s="74" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X173" s="79">
+      <c r="X173" s="74">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -19729,7 +19729,9 @@
       <c r="K204" s="70">
         <v>0.27</v>
       </c>
-      <c r="L204" s="69"/>
+      <c r="L204" s="69">
+        <v>4</v>
+      </c>
       <c r="M204" s="35">
         <v>5</v>
       </c>
@@ -19752,7 +19754,7 @@
       </c>
       <c r="S204" s="26">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T204" s="26">
         <f>Таблица1[[#This Row],[Кофе]]</f>
@@ -19762,8 +19764,14 @@
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V204" s="69"/>
-      <c r="W204" s="69"/>
+      <c r="V204" s="27">
+        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>0.84</v>
+      </c>
+      <c r="W204" s="26" t="str">
+        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>Отличное качество</v>
+      </c>
       <c r="X204" s="69">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>0</v>
@@ -20037,10 +20045,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="79"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -21186,14 +21194,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="D1" s="76" t="s">
+      <c r="B1" s="80"/>
+      <c r="D1" s="81" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="76"/>
+      <c r="E1" s="81"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -28987,19 +28995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="82" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="78" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83" t="s">
         <v>694</v>
       </c>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">

--- a/Список пленок и толщин.xlsx
+++ b/Список пленок и толщин.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamynin\Documents\GitHub\protocols\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D25213-1D8C-447B-8297-125F6096836B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7932AC-0A1E-4995-823C-C342E59F26BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="971">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="989">
   <si>
     <t>№ пленки</t>
   </si>
@@ -3080,6 +3080,60 @@
   <si>
     <t>Мокко мелинга  </t>
   </si>
+  <si>
+    <t>0,35-0,38</t>
+  </si>
+  <si>
+    <t>0,43-0,50</t>
+  </si>
+  <si>
+    <t>0,34-0,40</t>
+  </si>
+  <si>
+    <t>0,32-0,45</t>
+  </si>
+  <si>
+    <t>0,42-0,48</t>
+  </si>
+  <si>
+    <t>0,43-0,47</t>
+  </si>
+  <si>
+    <t>0,41-0,49</t>
+  </si>
+  <si>
+    <t>0,28-0,35</t>
+  </si>
+  <si>
+    <t>0,40-0,46</t>
+  </si>
+  <si>
+    <t>0,33-0,41</t>
+  </si>
+  <si>
+    <t>0,31-0,41</t>
+  </si>
+  <si>
+    <t>0,33-0,38</t>
+  </si>
+  <si>
+    <t>0,38-0,47</t>
+  </si>
+  <si>
+    <t>0,32-0,38</t>
+  </si>
+  <si>
+    <t>0,37-0,39</t>
+  </si>
+  <si>
+    <t>0,61-0,63</t>
+  </si>
+  <si>
+    <t>№572</t>
+  </si>
+  <si>
+    <t>Графит нубук</t>
+  </si>
 </sst>
 </file>
 
@@ -3088,7 +3142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3278,6 +3332,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -3412,7 +3473,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3613,22 +3674,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3639,6 +3688,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4715,8 +4789,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Входной_контроль" displayName="Входной_контроль" ref="A1:G418" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G418" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Входной_контроль" displayName="Входной_контроль" ref="A1:G433" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G433" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Наименование пленки" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Номер ролика" dataDxfId="5"/>
@@ -5032,9 +5106,9 @@
   </sheetPr>
   <dimension ref="A1:X209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB198" sqref="AB198"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -5738,85 +5812,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:24" s="74" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
         <v>592</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="71" t="s">
         <v>969</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="74">
+      <c r="F11" s="71">
         <v>0.35</v>
       </c>
-      <c r="G11" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H11" s="74" t="s">
+      <c r="G11" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="H11" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="I11" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J11" s="74" t="s">
+      <c r="I11" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="J11" s="71" t="s">
         <v>961</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="72">
         <v>0.35</v>
       </c>
-      <c r="L11" s="74">
-        <v>5</v>
-      </c>
-      <c r="M11" s="74">
-        <v>5</v>
-      </c>
-      <c r="N11" s="74">
-        <v>5</v>
-      </c>
-      <c r="O11" s="74" t="s">
+      <c r="L11" s="71">
+        <v>5</v>
+      </c>
+      <c r="M11" s="71">
+        <v>5</v>
+      </c>
+      <c r="N11" s="71">
+        <v>5</v>
+      </c>
+      <c r="O11" s="71" t="s">
         <v>771</v>
       </c>
-      <c r="P11" s="74" t="str">
+      <c r="P11" s="71" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q11" s="74">
+      <c r="Q11" s="71">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R11" s="74">
+      <c r="R11" s="71">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S11" s="74">
+      <c r="S11" s="71">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>5</v>
       </c>
-      <c r="T11" s="74">
+      <c r="T11" s="71">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U11" s="74">
+      <c r="U11" s="71">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V11" s="77">
+      <c r="V11" s="73">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.96</v>
       </c>
-      <c r="W11" s="74" t="str">
+      <c r="W11" s="71" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X11" s="74">
+      <c r="X11" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -6055,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" s="45" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>404</v>
       </c>
@@ -6065,7 +6139,7 @@
       <c r="C16" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -6121,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" s="45" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>405</v>
       </c>
@@ -6131,8 +6205,8 @@
       <c r="C17" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="D17" s="73" t="s">
-        <v>960</v>
+      <c r="D17" s="29" t="s">
+        <v>558</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>260</v>
@@ -6140,17 +6214,31 @@
       <c r="F17" s="19">
         <v>0.32</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="G17" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="J17" s="19"/>
-      <c r="K17" s="25"/>
+      <c r="K17" s="19">
+        <v>0.32</v>
+      </c>
       <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
+      <c r="M17" s="35">
+        <v>5</v>
+      </c>
+      <c r="N17" s="35">
+        <v>5</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>771</v>
+      </c>
       <c r="P17" s="19" t="s">
-        <v>863</v>
+        <v>968</v>
       </c>
       <c r="Q17" s="19" t="str">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
@@ -6158,7 +6246,7 @@
       </c>
       <c r="R17" s="19">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S17" s="19">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
@@ -6166,11 +6254,11 @@
       </c>
       <c r="T17" s="19">
         <f>Таблица1[[#This Row],[Кофе]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U17" s="19">
         <f>Таблица1[[#This Row],[Масло]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V17" s="19"/>
       <c r="W17" s="19"/>
@@ -8129,7 +8217,7 @@
       <c r="C46" s="19" t="s">
         <v>715</v>
       </c>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -8337,7 +8425,7 @@
       <c r="C49" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="D49" s="73" t="s">
+      <c r="D49" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E49" s="19"/>
@@ -8759,7 +8847,7 @@
       <c r="C55" s="19" t="s">
         <v>727</v>
       </c>
-      <c r="D55" s="73" t="s">
+      <c r="D55" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E55" s="19"/>
@@ -9214,7 +9302,7 @@
       <c r="C61" s="19" t="s">
         <v>897</v>
       </c>
-      <c r="D61" s="73" t="s">
+      <c r="D61" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E61" s="19"/>
@@ -9276,7 +9364,7 @@
       <c r="C62" s="19" t="s">
         <v>899</v>
       </c>
-      <c r="D62" s="73" t="s">
+      <c r="D62" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E62" s="19"/>
@@ -9466,85 +9554,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="78" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="74" t="s">
+    <row r="65" spans="1:24" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="71" t="s">
         <v>298</v>
       </c>
-      <c r="B65" s="74" t="s">
+      <c r="B65" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="74" t="s">
+      <c r="E65" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="74">
+      <c r="F65" s="71">
         <v>0.3</v>
       </c>
-      <c r="G65" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H65" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="I65" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J65" s="74" t="s">
+      <c r="G65" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="H65" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="I65" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="J65" s="71" t="s">
         <v>961</v>
       </c>
-      <c r="K65" s="76">
+      <c r="K65" s="72">
         <v>0.3</v>
       </c>
-      <c r="L65" s="74">
+      <c r="L65" s="71">
         <v>4</v>
       </c>
-      <c r="M65" s="74">
-        <v>5</v>
-      </c>
-      <c r="N65" s="74">
-        <v>5</v>
-      </c>
-      <c r="O65" s="74" t="s">
+      <c r="M65" s="71">
+        <v>5</v>
+      </c>
+      <c r="N65" s="71">
+        <v>5</v>
+      </c>
+      <c r="O65" s="71" t="s">
         <v>771</v>
       </c>
-      <c r="P65" s="74" t="str">
+      <c r="P65" s="71" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q65" s="74">
+      <c r="Q65" s="71">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R65" s="74">
+      <c r="R65" s="71">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>4</v>
       </c>
-      <c r="S65" s="74">
+      <c r="S65" s="71">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T65" s="74">
+      <c r="T65" s="71">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U65" s="74">
+      <c r="U65" s="71">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V65" s="77">
+      <c r="V65" s="73">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.88</v>
       </c>
-      <c r="W65" s="74" t="str">
+      <c r="W65" s="71" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Отличное качество</v>
       </c>
-      <c r="X65" s="74">
+      <c r="X65" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -9884,168 +9972,168 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="74" t="s">
+    <row r="71" spans="1:24" s="74" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="71" t="s">
         <v>304</v>
       </c>
-      <c r="B71" s="74" t="s">
+      <c r="B71" s="71" t="s">
         <v>970</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E71" s="74" t="s">
+      <c r="E71" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="74">
+      <c r="F71" s="71">
         <v>0.4</v>
       </c>
-      <c r="G71" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H71" s="74" t="s">
+      <c r="G71" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="H71" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="I71" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J71" s="74" t="s">
+      <c r="I71" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="71" t="s">
         <v>526</v>
       </c>
-      <c r="K71" s="76">
+      <c r="K71" s="72">
         <v>0.46</v>
       </c>
-      <c r="L71" s="74">
-        <v>5</v>
-      </c>
-      <c r="M71" s="74">
-        <v>5</v>
-      </c>
-      <c r="N71" s="74">
-        <v>5</v>
-      </c>
-      <c r="O71" s="74" t="s">
+      <c r="L71" s="71">
+        <v>5</v>
+      </c>
+      <c r="M71" s="71">
+        <v>5</v>
+      </c>
+      <c r="N71" s="71">
+        <v>5</v>
+      </c>
+      <c r="O71" s="71" t="s">
         <v>771</v>
       </c>
-      <c r="P71" s="74" t="str">
+      <c r="P71" s="71" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q71" s="74">
+      <c r="Q71" s="71">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R71" s="74">
+      <c r="R71" s="71">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S71" s="74">
+      <c r="S71" s="71">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>5</v>
       </c>
-      <c r="T71" s="74">
+      <c r="T71" s="71">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U71" s="74">
+      <c r="U71" s="71">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V71" s="77">
+      <c r="V71" s="73">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>1</v>
       </c>
-      <c r="W71" s="74" t="str">
+      <c r="W71" s="71" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X71" s="74">
+      <c r="X71" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="74" t="s">
+    <row r="72" spans="1:24" s="74" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="71" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="74" t="s">
+      <c r="B72" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="74" t="s">
+      <c r="D72" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E72" s="74" t="s">
+      <c r="E72" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="F72" s="74">
+      <c r="F72" s="71">
         <v>0.4</v>
       </c>
-      <c r="G72" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H72" s="74" t="s">
+      <c r="G72" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="H72" s="71" t="s">
         <v>412</v>
       </c>
-      <c r="I72" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J72" s="74" t="s">
+      <c r="I72" s="71" t="s">
+        <v>409</v>
+      </c>
+      <c r="J72" s="71" t="s">
         <v>526</v>
       </c>
-      <c r="K72" s="76">
+      <c r="K72" s="72">
         <v>0.45</v>
       </c>
-      <c r="L72" s="74">
+      <c r="L72" s="71">
         <v>4</v>
       </c>
-      <c r="M72" s="74">
-        <v>5</v>
-      </c>
-      <c r="N72" s="74">
-        <v>5</v>
-      </c>
-      <c r="O72" s="74" t="s">
+      <c r="M72" s="71">
+        <v>5</v>
+      </c>
+      <c r="N72" s="71">
+        <v>5</v>
+      </c>
+      <c r="O72" s="71" t="s">
         <v>771</v>
       </c>
-      <c r="P72" s="74" t="str">
+      <c r="P72" s="71" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q72" s="74">
+      <c r="Q72" s="71">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R72" s="74">
+      <c r="R72" s="71">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S72" s="74">
+      <c r="S72" s="71">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T72" s="74">
+      <c r="T72" s="71">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U72" s="74">
+      <c r="U72" s="71">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V72" s="77">
+      <c r="V72" s="73">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.96</v>
       </c>
-      <c r="W72" s="74" t="str">
+      <c r="W72" s="71" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X72" s="74">
+      <c r="X72" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -13163,9 +13251,8 @@
       <c r="O118" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="P118" s="20" t="str">
-        <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
-        <v>ДА</v>
+      <c r="P118" s="20" t="s">
+        <v>863</v>
       </c>
       <c r="Q118" s="19">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
@@ -13236,9 +13323,8 @@
       <c r="O119" s="19" t="s">
         <v>771</v>
       </c>
-      <c r="P119" s="20" t="str">
-        <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
-        <v>ДА</v>
+      <c r="P119" s="20" t="s">
+        <v>863</v>
       </c>
       <c r="Q119" s="19">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
@@ -13652,7 +13738,7 @@
       <c r="C125" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="D125" s="73" t="s">
+      <c r="D125" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E125" s="26" t="s">
@@ -13818,7 +13904,7 @@
       <c r="C127" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D127" s="73" t="s">
+      <c r="D127" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E127" s="26" t="s">
@@ -13978,7 +14064,7 @@
       <c r="C129" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D129" s="73" t="s">
+      <c r="D129" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E129" s="19" t="s">
@@ -14047,7 +14133,7 @@
       <c r="C130" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="D130" s="73" t="s">
+      <c r="D130" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E130" s="26" t="s">
@@ -14124,7 +14210,7 @@
       <c r="C131" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="D131" s="73" t="s">
+      <c r="D131" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E131" s="19" t="s">
@@ -14187,7 +14273,7 @@
       <c r="C132" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D132" s="73" t="s">
+      <c r="D132" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E132" s="26" t="s">
@@ -14260,151 +14346,167 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:24" s="42" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+    <row r="133" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="C133" s="19" t="s">
+      <c r="C133" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="D133" s="73" t="s">
+      <c r="D133" s="81" t="s">
         <v>960</v>
       </c>
-      <c r="E133" s="19" t="s">
+      <c r="E133" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="F133" s="19">
+      <c r="F133" s="59">
         <v>0.3</v>
       </c>
-      <c r="G133" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="H133" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="I133" s="19" t="s">
+      <c r="G133" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="H133" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="I133" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="J133" s="19" t="s">
+      <c r="J133" s="59" t="s">
         <v>800</v>
       </c>
-      <c r="K133" s="25">
+      <c r="K133" s="82">
         <v>0.31</v>
       </c>
-      <c r="L133" s="19"/>
-      <c r="M133" s="19">
+      <c r="L133" s="59">
+        <v>4</v>
+      </c>
+      <c r="M133" s="59">
         <v>2</v>
       </c>
-      <c r="N133" s="19">
-        <v>5</v>
-      </c>
-      <c r="O133" s="19">
-        <v>1</v>
-      </c>
-      <c r="P133" s="20" t="str">
+      <c r="N133" s="59">
+        <v>5</v>
+      </c>
+      <c r="O133" s="59">
+        <v>1</v>
+      </c>
+      <c r="P133" s="59" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q133" s="19">
+      <c r="Q133" s="59">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R133" s="19">
+      <c r="R133" s="59">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>4</v>
       </c>
-      <c r="S133" s="26">
+      <c r="S133" s="59">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
-        <v>0</v>
-      </c>
-      <c r="T133" s="26">
+        <v>4</v>
+      </c>
+      <c r="T133" s="59">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U133" s="26">
+      <c r="U133" s="59">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V133" s="24"/>
-      <c r="W133" s="20"/>
+      <c r="V133" s="83">
+        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>0.8</v>
+      </c>
+      <c r="W133" s="59" t="str">
+        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>Отличное качество</v>
+      </c>
       <c r="X133" s="20">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
+    <row r="134" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="59" t="s">
         <v>362</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="C134" s="19" t="s">
+      <c r="C134" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="59">
         <v>100</v>
       </c>
-      <c r="F134" s="19">
+      <c r="F134" s="59">
         <v>0.3</v>
       </c>
-      <c r="G134" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="H134" s="19" t="s">
+      <c r="G134" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="H134" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="I134" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="J134" s="19" t="s">
+      <c r="I134" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="J134" s="59" t="s">
         <v>800</v>
       </c>
-      <c r="K134" s="25">
+      <c r="K134" s="82">
         <v>0.3</v>
       </c>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19">
-        <v>5</v>
-      </c>
-      <c r="N134" s="19">
-        <v>5</v>
-      </c>
-      <c r="O134" s="19">
-        <v>1</v>
-      </c>
-      <c r="P134" s="20" t="str">
+      <c r="L134" s="59">
+        <v>4</v>
+      </c>
+      <c r="M134" s="59">
+        <v>5</v>
+      </c>
+      <c r="N134" s="59">
+        <v>5</v>
+      </c>
+      <c r="O134" s="59">
+        <v>1</v>
+      </c>
+      <c r="P134" s="59" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q134" s="19">
+      <c r="Q134" s="59">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R134" s="19">
+      <c r="R134" s="59">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>4</v>
       </c>
-      <c r="S134" s="26">
+      <c r="S134" s="59">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
-        <v>0</v>
-      </c>
-      <c r="T134" s="26">
+        <v>4</v>
+      </c>
+      <c r="T134" s="59">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U134" s="26">
+      <c r="U134" s="59">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V134" s="24"/>
-      <c r="W134" s="20"/>
+      <c r="V134" s="83">
+        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>0.92</v>
+      </c>
+      <c r="W134" s="59" t="str">
+        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>Превосходное качество</v>
+      </c>
       <c r="X134" s="20">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
@@ -14503,7 +14605,7 @@
       <c r="C136" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="D136" s="73" t="s">
+      <c r="D136" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E136" s="26" t="s">
@@ -14586,7 +14688,7 @@
       <c r="C137" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="D137" s="73" t="s">
+      <c r="D137" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E137" s="26" t="s">
@@ -14979,7 +15081,7 @@
       <c r="C142" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D142" s="73" t="s">
+      <c r="D142" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E142" s="19" t="s">
@@ -15137,7 +15239,7 @@
       <c r="C144" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="D144" s="73" t="s">
+      <c r="D144" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E144" s="26" t="s">
@@ -15372,7 +15474,7 @@
       <c r="C147" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="D147" s="73" t="s">
+      <c r="D147" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E147" s="26" t="s">
@@ -15455,7 +15557,7 @@
       <c r="C148" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D148" s="73" t="s">
+      <c r="D148" s="70" t="s">
         <v>960</v>
       </c>
       <c r="E148" s="19" t="s">
@@ -16163,7 +16265,7 @@
       <c r="C158" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="D158" s="73" t="s">
+      <c r="D158" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E158" s="26" t="s">
@@ -16246,7 +16348,7 @@
       <c r="C159" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="D159" s="73" t="s">
+      <c r="D159" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E159" s="26" t="s">
@@ -16402,85 +16504,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="74" t="s">
+    <row r="161" spans="1:24" s="42" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="B161" s="74" t="s">
+      <c r="B161" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="C161" s="74" t="s">
+      <c r="C161" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D161" s="74" t="s">
+      <c r="D161" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="74" t="s">
+      <c r="E161" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F161" s="74">
+      <c r="F161" s="26">
         <v>0.27</v>
       </c>
-      <c r="G161" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H161" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="I161" s="74" t="s">
+      <c r="G161" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="H161" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="I161" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="J161" s="74" t="s">
+      <c r="J161" s="26" t="s">
         <v>961</v>
       </c>
-      <c r="K161" s="76">
+      <c r="K161" s="28">
         <v>0.26</v>
       </c>
-      <c r="L161" s="74">
+      <c r="L161" s="26">
         <v>4</v>
       </c>
-      <c r="M161" s="74">
+      <c r="M161" s="26">
         <v>2</v>
       </c>
-      <c r="N161" s="74">
-        <v>5</v>
-      </c>
-      <c r="O161" s="74">
-        <v>1</v>
-      </c>
-      <c r="P161" s="74" t="str">
+      <c r="N161" s="26">
+        <v>5</v>
+      </c>
+      <c r="O161" s="26">
+        <v>1</v>
+      </c>
+      <c r="P161" s="26" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q161" s="74">
+      <c r="Q161" s="26">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R161" s="74">
+      <c r="R161" s="26">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>3</v>
       </c>
-      <c r="S161" s="74">
+      <c r="S161" s="26">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T161" s="74">
+      <c r="T161" s="26">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U161" s="74">
+      <c r="U161" s="26">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V161" s="77">
+      <c r="V161" s="27">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.72</v>
       </c>
-      <c r="W161" s="74" t="str">
+      <c r="W161" s="26" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Хорошее качество</v>
       </c>
-      <c r="X161" s="74">
+      <c r="X161" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -16643,85 +16745,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="74" t="s">
+    <row r="164" spans="1:24" s="42" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="B164" s="74" t="s">
+      <c r="B164" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="C164" s="74" t="s">
+      <c r="C164" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="D164" s="74" t="s">
+      <c r="D164" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E164" s="74" t="s">
+      <c r="E164" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="F164" s="74">
+      <c r="F164" s="26">
         <v>0.27</v>
       </c>
-      <c r="G164" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H164" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="I164" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J164" s="74" t="s">
+      <c r="G164" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="H164" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="I164" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="J164" s="26" t="s">
         <v>800</v>
       </c>
-      <c r="K164" s="76">
+      <c r="K164" s="28">
         <v>0.27</v>
       </c>
-      <c r="L164" s="74">
+      <c r="L164" s="26">
         <v>2</v>
       </c>
-      <c r="M164" s="74">
+      <c r="M164" s="26">
         <v>2</v>
       </c>
-      <c r="N164" s="74">
-        <v>5</v>
-      </c>
-      <c r="O164" s="74">
-        <v>1</v>
-      </c>
-      <c r="P164" s="74" t="str">
+      <c r="N164" s="26">
+        <v>5</v>
+      </c>
+      <c r="O164" s="26">
+        <v>1</v>
+      </c>
+      <c r="P164" s="26" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q164" s="74">
+      <c r="Q164" s="26">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R164" s="74">
+      <c r="R164" s="26">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>3</v>
       </c>
-      <c r="S164" s="74">
+      <c r="S164" s="26">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>2</v>
       </c>
-      <c r="T164" s="74">
+      <c r="T164" s="26">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>2</v>
       </c>
-      <c r="U164" s="74">
+      <c r="U164" s="26">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V164" s="77">
+      <c r="V164" s="27">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.68</v>
       </c>
-      <c r="W164" s="74" t="str">
+      <c r="W164" s="26" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Хорошее качество</v>
       </c>
-      <c r="X164" s="74">
+      <c r="X164" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -17377,85 +17479,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:24" s="78" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="74" t="s">
+    <row r="173" spans="1:24" s="42" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="B173" s="74" t="s">
+      <c r="B173" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="C173" s="74" t="s">
+      <c r="C173" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="D173" s="74" t="s">
+      <c r="D173" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E173" s="75" t="s">
+      <c r="E173" s="30" t="s">
         <v>504</v>
       </c>
-      <c r="F173" s="74">
+      <c r="F173" s="26">
         <v>0.33</v>
       </c>
-      <c r="G173" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="H173" s="74" t="s">
+      <c r="G173" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="H173" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="I173" s="74" t="s">
-        <v>409</v>
-      </c>
-      <c r="J173" s="74" t="s">
+      <c r="I173" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="J173" s="26" t="s">
         <v>526</v>
       </c>
-      <c r="K173" s="76">
+      <c r="K173" s="28">
         <v>0.36</v>
       </c>
-      <c r="L173" s="74">
+      <c r="L173" s="26">
         <v>4</v>
       </c>
-      <c r="M173" s="74">
-        <v>5</v>
-      </c>
-      <c r="N173" s="74">
-        <v>5</v>
-      </c>
-      <c r="O173" s="74">
-        <v>1</v>
-      </c>
-      <c r="P173" s="74" t="str">
+      <c r="M173" s="26">
+        <v>5</v>
+      </c>
+      <c r="N173" s="26">
+        <v>5</v>
+      </c>
+      <c r="O173" s="26">
+        <v>1</v>
+      </c>
+      <c r="P173" s="26" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q173" s="74">
+      <c r="Q173" s="26">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R173" s="74">
+      <c r="R173" s="26">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>5</v>
       </c>
-      <c r="S173" s="74">
+      <c r="S173" s="26">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
-      <c r="T173" s="74">
+      <c r="T173" s="26">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U173" s="74">
+      <c r="U173" s="26">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V173" s="77">
+      <c r="V173" s="27">
         <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
         <v>0.96</v>
       </c>
-      <c r="W173" s="74" t="str">
+      <c r="W173" s="26" t="str">
         <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
         <v>Превосходное качество</v>
       </c>
-      <c r="X173" s="74">
+      <c r="X173" s="71">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
       </c>
@@ -18189,74 +18291,82 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:24" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="19" t="s">
+    <row r="183" spans="1:24" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="59" t="s">
         <v>622</v>
       </c>
-      <c r="B183" s="19" t="s">
+      <c r="B183" s="59" t="s">
         <v>701</v>
       </c>
-      <c r="C183" s="19" t="s">
+      <c r="C183" s="59" t="s">
         <v>702</v>
       </c>
-      <c r="D183" s="19" t="s">
+      <c r="D183" s="59" t="s">
         <v>469</v>
       </c>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19">
+      <c r="E183" s="59"/>
+      <c r="F183" s="59">
         <v>0.3</v>
       </c>
-      <c r="G183" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="H183" s="19" t="s">
+      <c r="G183" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="H183" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="I183" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="J183" s="19" t="s">
+      <c r="I183" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="J183" s="59" t="s">
         <v>698</v>
       </c>
-      <c r="K183" s="25">
+      <c r="K183" s="82">
         <v>0.33</v>
       </c>
-      <c r="L183" s="19"/>
-      <c r="M183" s="19">
-        <v>5</v>
-      </c>
-      <c r="N183" s="19">
-        <v>5</v>
-      </c>
-      <c r="O183" s="19">
-        <v>1</v>
-      </c>
-      <c r="P183" s="20" t="str">
+      <c r="L183" s="59">
+        <v>4</v>
+      </c>
+      <c r="M183" s="59">
+        <v>5</v>
+      </c>
+      <c r="N183" s="59">
+        <v>5</v>
+      </c>
+      <c r="O183" s="59">
+        <v>1</v>
+      </c>
+      <c r="P183" s="59" t="str">
         <f>IF(Таблица1[[#This Row],[НАЛИЧИЕ В ПРОГРАММЕ]]=1,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="Q183" s="19">
+      <c r="Q183" s="59">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>5</v>
       </c>
-      <c r="R183" s="19">
+      <c r="R183" s="59">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>4</v>
       </c>
-      <c r="S183" s="26">
+      <c r="S183" s="59">
         <f>Таблица1[[#This Row],[Нагрев]]</f>
-        <v>0</v>
-      </c>
-      <c r="T183" s="26">
+        <v>4</v>
+      </c>
+      <c r="T183" s="59">
         <f>Таблица1[[#This Row],[Кофе]]</f>
         <v>5</v>
       </c>
-      <c r="U183" s="26">
+      <c r="U183" s="59">
         <f>Таблица1[[#This Row],[Масло]]</f>
         <v>5</v>
       </c>
-      <c r="V183" s="24"/>
-      <c r="W183" s="20"/>
+      <c r="V183" s="83">
+        <f>SUM(Таблица1[[#This Row],[Твердость ИКС]:[Масло ИКС]])/25</f>
+        <v>0.92</v>
+      </c>
+      <c r="W183" s="59" t="str">
+        <f>_xlfn.IFS(Таблица1[[#This Row],[ИКС,%]]&gt;=0.9,"Превосходное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.8,Таблица1[[#This Row],[ИКС,%]]&lt;=0.89),"Отличное качество",AND(Таблица1[[#This Row],[ИКС,%]]&gt;=0.6,Таблица1[[#This Row],[ИКС,%]]&lt;=0.79),"Хорошее качество")</f>
+        <v>Превосходное качество</v>
+      </c>
       <c r="X183" s="20">
         <f>IFERROR(VLOOKUP(Таблица1[[#This Row],[№ пленки]],Каталог[],2,0),0)</f>
         <v>1</v>
@@ -18351,7 +18461,7 @@
       <c r="C185" s="26" t="s">
         <v>727</v>
       </c>
-      <c r="D185" s="73" t="s">
+      <c r="D185" s="75" t="s">
         <v>960</v>
       </c>
       <c r="E185" s="26"/>
@@ -19699,61 +19809,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="B204" s="69"/>
-      <c r="C204" s="72" t="s">
+    <row r="204" spans="1:24" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="76" t="s">
+        <v>987</v>
+      </c>
+      <c r="B204" s="77" t="s">
+        <v>988</v>
+      </c>
+      <c r="C204" s="78" t="s">
         <v>959</v>
       </c>
-      <c r="D204" s="73" t="s">
+      <c r="D204" s="75" t="s">
         <v>960</v>
       </c>
-      <c r="E204" s="69"/>
-      <c r="F204" s="19">
+      <c r="E204" s="79"/>
+      <c r="F204" s="26">
         <v>0.25</v>
       </c>
-      <c r="G204" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="H204" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="I204" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="J204" s="71" t="s">
+      <c r="G204" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="H204" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="I204" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="J204" s="76" t="s">
         <v>961</v>
       </c>
-      <c r="K204" s="70">
+      <c r="K204" s="80">
         <v>0.27</v>
       </c>
-      <c r="L204" s="69">
-        <v>4</v>
-      </c>
-      <c r="M204" s="35">
-        <v>5</v>
-      </c>
-      <c r="N204" s="22">
+      <c r="L204" s="79"/>
+      <c r="M204" s="31">
+        <v>5</v>
+      </c>
+      <c r="N204" s="31">
         <v>5</v>
       </c>
       <c r="O204" s="26" t="s">
         <v>771</v>
       </c>
-      <c r="P204" s="71" t="s">
+      <c r="P204" s="76" t="s">
         <v>968</v>
       </c>
-      <c r="Q204" s="19">
+      <c r="Q204" s="26">
         <f>IFERROR(_xlfn.IFS(Таблица1[[#This Row],[Твердость]]="2B",4,Таблица1[[#This Row],[Твердость]]="B",5,Таблица1[[#This Row],[Твердость]]="HB",5,Таблица1[[#This Row],[Твердость]]="F",5,Таблица1[[#This Row],[Твердость]]="H",5,Таблица1[[#This Row],[Твердость]]="2H",5,Таблица1[[#This Row],[Твердость]]="3H",5,Таблица1[[#This Row],[Твердость]]="4H",5,Таблица1[[#This Row],[Твердость]]="5H",5,Таблица1[[#This Row],[Твердость]]="3B",3,Таблица1[[#This Row],[Твердость]]="4B",2,Таблица1[[#This Row],[Твердость]]="5B",1),"")</f>
         <v>4</v>
       </c>
-      <c r="R204" s="19">
+      <c r="R204" s="26">
         <f>_xlfn.IFS(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.35,5,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.34,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.3),4,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.29,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.25),3,AND(Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.24,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&gt;=0.2),2,Таблица1[[#This Row],[Факт.толщ.пленки,мм2]]&lt;=0.19,1)</f>
         <v>3</v>
       </c>
       <c r="S204" s="26">
-        <f>Таблица1[[#This Row],[Нагрев]]</f>
         <v>4</v>
       </c>
       <c r="T204" s="26">
@@ -20045,10 +20154,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>862</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="84"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="52" t="s">
@@ -21194,14 +21303,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="85" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="D1" s="81" t="s">
+      <c r="B1" s="85"/>
+      <c r="D1" s="86" t="s">
         <v>487</v>
       </c>
-      <c r="E1" s="81"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -21297,10 +21406,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:G418"/>
+  <dimension ref="A1:G433"/>
   <sheetViews>
-    <sheetView topLeftCell="A357" workbookViewId="0">
-      <selection activeCell="H389" sqref="H389"/>
+    <sheetView topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="E432" sqref="E432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28708,265 +28817,730 @@
       <c r="G389" s="3"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="1"/>
-      <c r="B390" s="3"/>
-      <c r="C390" s="3"/>
-      <c r="D390" s="11"/>
-      <c r="E390" s="3"/>
+      <c r="A390" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B390" s="3">
+        <v>341</v>
+      </c>
+      <c r="C390" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D390" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>971</v>
+      </c>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="1"/>
-      <c r="B391" s="3"/>
-      <c r="C391" s="3"/>
-      <c r="D391" s="11"/>
-      <c r="E391" s="3"/>
+      <c r="A391" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B391" s="3">
+        <v>342</v>
+      </c>
+      <c r="C391" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D391" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>972</v>
+      </c>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="1"/>
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="11"/>
-      <c r="E392" s="3"/>
+      <c r="A392" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B392" s="3">
+        <v>343</v>
+      </c>
+      <c r="C392" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D392" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="1"/>
-      <c r="B393" s="3"/>
-      <c r="C393" s="3"/>
-      <c r="D393" s="11"/>
-      <c r="E393" s="3"/>
+      <c r="A393" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B393" s="3">
+        <v>344</v>
+      </c>
+      <c r="C393" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D393" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>767</v>
+      </c>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="1"/>
-      <c r="B394" s="3"/>
-      <c r="C394" s="3"/>
-      <c r="D394" s="11"/>
-      <c r="E394" s="3"/>
+      <c r="A394" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B394" s="3">
+        <v>345</v>
+      </c>
+      <c r="C394" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D394" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>973</v>
+      </c>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="1"/>
-      <c r="B395" s="3"/>
-      <c r="C395" s="3"/>
-      <c r="D395" s="11"/>
-      <c r="E395" s="3"/>
+      <c r="A395" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B395" s="3">
+        <v>346</v>
+      </c>
+      <c r="C395" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D395" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>833</v>
+      </c>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="1"/>
-      <c r="B396" s="3"/>
-      <c r="C396" s="3"/>
-      <c r="D396" s="11"/>
-      <c r="E396" s="3"/>
+      <c r="A396" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B396" s="3">
+        <v>347</v>
+      </c>
+      <c r="C396" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D396" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="1"/>
-      <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
-      <c r="D397" s="11"/>
-      <c r="E397" s="3"/>
+      <c r="A397" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B397" s="3">
+        <v>348</v>
+      </c>
+      <c r="C397" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D397" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>974</v>
+      </c>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="1"/>
-      <c r="B398" s="3"/>
-      <c r="C398" s="3"/>
-      <c r="D398" s="11"/>
-      <c r="E398" s="3"/>
+      <c r="A398" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B398" s="3">
+        <v>349</v>
+      </c>
+      <c r="C398" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D398" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>975</v>
+      </c>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="1"/>
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
-      <c r="D399" s="11"/>
-      <c r="E399" s="3"/>
+      <c r="A399" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B399" s="3">
+        <v>350</v>
+      </c>
+      <c r="C399" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D399" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>708</v>
+      </c>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="1"/>
-      <c r="B400" s="3"/>
-      <c r="C400" s="3"/>
-      <c r="D400" s="11"/>
-      <c r="E400" s="3"/>
+      <c r="A400" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B400" s="3">
+        <v>351</v>
+      </c>
+      <c r="C400" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D400" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>976</v>
+      </c>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="1"/>
-      <c r="B401" s="3"/>
-      <c r="C401" s="3"/>
-      <c r="D401" s="11"/>
-      <c r="E401" s="3"/>
+      <c r="A401" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B401" s="3">
+        <v>352</v>
+      </c>
+      <c r="C401" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D401" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>925</v>
+      </c>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="1"/>
-      <c r="B402" s="3"/>
-      <c r="C402" s="3"/>
-      <c r="D402" s="11"/>
-      <c r="E402" s="3"/>
+      <c r="A402" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B402" s="3">
+        <v>353</v>
+      </c>
+      <c r="C402" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D402" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>977</v>
+      </c>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="1"/>
-      <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
-      <c r="D403" s="11"/>
-      <c r="E403" s="3"/>
+      <c r="A403" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B403" s="3">
+        <v>354</v>
+      </c>
+      <c r="C403" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D403" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>978</v>
+      </c>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="1"/>
-      <c r="B404" s="3"/>
-      <c r="C404" s="3"/>
-      <c r="D404" s="11"/>
-      <c r="E404" s="3"/>
+      <c r="A404" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B404" s="3">
+        <v>355</v>
+      </c>
+      <c r="C404" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D404" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>979</v>
+      </c>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="1"/>
-      <c r="B405" s="3"/>
-      <c r="C405" s="3"/>
-      <c r="D405" s="11"/>
-      <c r="E405" s="3"/>
+      <c r="A405" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B405" s="3">
+        <v>356</v>
+      </c>
+      <c r="C405" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D405" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>541</v>
+      </c>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="1"/>
-      <c r="B406" s="3"/>
-      <c r="C406" s="3"/>
-      <c r="D406" s="11"/>
-      <c r="E406" s="3"/>
+      <c r="A406" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B406" s="3">
+        <v>357</v>
+      </c>
+      <c r="C406" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D406" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>956</v>
+      </c>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="1"/>
-      <c r="B407" s="3"/>
-      <c r="C407" s="3"/>
-      <c r="D407" s="11"/>
-      <c r="E407" s="3"/>
+      <c r="A407" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B407" s="3">
+        <v>358</v>
+      </c>
+      <c r="C407" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D407" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="1"/>
-      <c r="B408" s="3"/>
-      <c r="C408" s="3"/>
-      <c r="D408" s="11"/>
-      <c r="E408" s="3"/>
+      <c r="A408" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B408" s="3">
+        <v>359</v>
+      </c>
+      <c r="C408" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D408" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>614</v>
+      </c>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="1"/>
-      <c r="B409" s="3"/>
-      <c r="C409" s="3"/>
-      <c r="D409" s="11"/>
-      <c r="E409" s="3"/>
+      <c r="A409" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B409" s="3">
+        <v>360</v>
+      </c>
+      <c r="C409" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D409" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>548</v>
+      </c>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="1"/>
-      <c r="B410" s="3"/>
-      <c r="C410" s="3"/>
-      <c r="D410" s="11"/>
-      <c r="E410" s="3"/>
+      <c r="A410" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B410" s="3">
+        <v>361</v>
+      </c>
+      <c r="C410" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D410" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>813</v>
+      </c>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="1"/>
-      <c r="B411" s="3"/>
-      <c r="C411" s="3"/>
-      <c r="D411" s="11"/>
-      <c r="E411" s="3"/>
+      <c r="A411" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B411" s="3">
+        <v>362</v>
+      </c>
+      <c r="C411" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D411" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>953</v>
+      </c>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="1"/>
-      <c r="B412" s="3"/>
-      <c r="C412" s="3"/>
-      <c r="D412" s="11"/>
-      <c r="E412" s="3"/>
+      <c r="A412" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B412" s="3">
+        <v>363</v>
+      </c>
+      <c r="C412" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D412" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="1"/>
-      <c r="B413" s="3"/>
-      <c r="C413" s="3"/>
-      <c r="D413" s="11"/>
-      <c r="E413" s="3"/>
+      <c r="A413" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B413" s="3">
+        <v>364</v>
+      </c>
+      <c r="C413" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D413" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>980</v>
+      </c>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="1"/>
-      <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
-      <c r="D414" s="11"/>
-      <c r="E414" s="3"/>
+      <c r="A414" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B414" s="3">
+        <v>365</v>
+      </c>
+      <c r="C414" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D414" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>618</v>
+      </c>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="1"/>
-      <c r="B415" s="3"/>
-      <c r="C415" s="3"/>
-      <c r="D415" s="11"/>
-      <c r="E415" s="3"/>
+      <c r="A415" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B415" s="3">
+        <v>366</v>
+      </c>
+      <c r="C415" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D415" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>981</v>
+      </c>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="1"/>
-      <c r="B416" s="3"/>
-      <c r="C416" s="3"/>
-      <c r="D416" s="11"/>
-      <c r="E416" s="3"/>
+      <c r="A416" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B416" s="3">
+        <v>367</v>
+      </c>
+      <c r="C416" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D416" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>982</v>
+      </c>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="1"/>
-      <c r="B417" s="3"/>
-      <c r="C417" s="3"/>
-      <c r="D417" s="11"/>
-      <c r="E417" s="3"/>
+      <c r="A417" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B417" s="3">
+        <v>368</v>
+      </c>
+      <c r="C417" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D417" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>983</v>
+      </c>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="1"/>
-      <c r="B418" s="3"/>
-      <c r="C418" s="3"/>
-      <c r="D418" s="11"/>
-      <c r="E418" s="3"/>
+      <c r="A418" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B418" s="3">
+        <v>369</v>
+      </c>
+      <c r="C418" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D418" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>984</v>
+      </c>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B419" s="3">
+        <v>370</v>
+      </c>
+      <c r="C419" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D419" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F419" s="3"/>
+      <c r="G419" s="3"/>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B420" s="3">
+        <v>371</v>
+      </c>
+      <c r="C420" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D420" s="11">
+        <v>0.35</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F420" s="3"/>
+      <c r="G420" s="3"/>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B421" s="3">
+        <v>372</v>
+      </c>
+      <c r="C421" s="4">
+        <v>45982</v>
+      </c>
+      <c r="D421" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F421" s="3"/>
+      <c r="G421" s="3"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B422" s="3">
+        <v>373</v>
+      </c>
+      <c r="C422" s="4">
+        <v>45986</v>
+      </c>
+      <c r="D422" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F422" s="3"/>
+      <c r="G422" s="3"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423" s="1"/>
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="3"/>
+      <c r="F423" s="3"/>
+      <c r="G423" s="3"/>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424" s="1"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="3"/>
+      <c r="F424" s="3"/>
+      <c r="G424" s="3"/>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425" s="1"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="3"/>
+      <c r="F425" s="3"/>
+      <c r="G425" s="3"/>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426" s="1"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="3"/>
+      <c r="F426" s="3"/>
+      <c r="G426" s="3"/>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427" s="1"/>
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="11"/>
+      <c r="E427" s="3"/>
+      <c r="F427" s="3"/>
+      <c r="G427" s="3"/>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428" s="1"/>
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="11"/>
+      <c r="E428" s="3"/>
+      <c r="F428" s="3"/>
+      <c r="G428" s="3"/>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429" s="1"/>
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="11"/>
+      <c r="E429" s="3"/>
+      <c r="F429" s="3"/>
+      <c r="G429" s="3"/>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430" s="1"/>
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="11"/>
+      <c r="E430" s="3"/>
+      <c r="F430" s="3"/>
+      <c r="G430" s="3"/>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431" s="1"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="11"/>
+      <c r="E431" s="3"/>
+      <c r="F431" s="3"/>
+      <c r="G431" s="3"/>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432" s="1"/>
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="11"/>
+      <c r="E432" s="3"/>
+      <c r="F432" s="3"/>
+      <c r="G432" s="3"/>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="1"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="11"/>
+      <c r="E433" s="3"/>
+      <c r="F433" s="3"/>
+      <c r="G433" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28995,19 +29569,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="87" t="s">
         <v>693</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="88" t="s">
         <v>694</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
     </row>
     <row r="2" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
